--- a/AE.PID.Client.VisioAddIn/Resources/ControlSpecification_template.xlsx
+++ b/AE.PID.Client.VisioAddIn/Resources/ControlSpecification_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03-程序\AE-PID\AE.PID.Client.VisioAddIn\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C5A870-E9B4-4CA6-B401-362E1A0D35FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2BAC08-1EDA-478A-9E9E-E9A38F5B2BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12140" yWindow="7440" windowWidth="22470" windowHeight="13440" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -911,9 +911,6 @@
 [kW]</t>
   </si>
   <si>
-    <t>电机级数</t>
-  </si>
-  <si>
     <t>电机防爆</t>
   </si>
   <si>
@@ -1360,6 +1357,9 @@
     <t>额定电压
 [V]</t>
     <phoneticPr fontId="60" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机极数</t>
   </si>
 </sst>
 </file>
@@ -7249,41 +7249,11 @@
     <xf numFmtId="0" fontId="3" fillId="23" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="32" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7294,6 +7264,36 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="2" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -7320,135 +7320,6 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="13" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7471,9 +7342,166 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="8" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="35" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="10" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="15" fillId="10" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="7" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="2" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="168" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -7486,12 +7514,6 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="170" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="185" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="165" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="176" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -7502,39 +7524,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="213" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="2" borderId="186" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="166" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="167" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="231" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="232" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="233" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="223" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="224" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="239" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="12" borderId="240" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="240" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="241" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="223" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="224" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="239" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="240" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="241" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="231" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="232" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="233" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -7542,47 +7583,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="212" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="239" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="240" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="241" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="39" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="223" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="224" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="223" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="224" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8684,19 +8684,19 @@
       <c r="E1" s="316"/>
       <c r="F1" s="316"/>
       <c r="G1" s="316"/>
-      <c r="H1" s="701" t="s">
+      <c r="H1" s="710" t="s">
         <v>239</v>
       </c>
-      <c r="I1" s="702"/>
+      <c r="I1" s="711"/>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1">
-      <c r="A2" s="695"/>
-      <c r="B2" s="696"/>
+      <c r="A2" s="704"/>
+      <c r="B2" s="705"/>
       <c r="C2" s="317" t="s">
         <v>240</v>
       </c>
       <c r="D2" s="317"/>
-      <c r="E2" s="699" t="s">
+      <c r="E2" s="708" t="s">
         <v>241</v>
       </c>
       <c r="F2" s="317" t="s">
@@ -8709,13 +8709,13 @@
       <c r="I2" s="319"/>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1">
-      <c r="A3" s="697"/>
-      <c r="B3" s="698"/>
+      <c r="A3" s="706"/>
+      <c r="B3" s="707"/>
       <c r="C3" s="320" t="s">
         <v>243</v>
       </c>
       <c r="D3" s="320"/>
-      <c r="E3" s="700"/>
+      <c r="E3" s="709"/>
       <c r="F3" s="320" t="s">
         <v>244</v>
       </c>
@@ -8726,13 +8726,13 @@
       <c r="I3" s="321"/>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1">
-      <c r="A4" s="697"/>
-      <c r="B4" s="698"/>
+      <c r="A4" s="706"/>
+      <c r="B4" s="707"/>
       <c r="C4" s="320" t="s">
         <v>246</v>
       </c>
       <c r="D4" s="320"/>
-      <c r="E4" s="700"/>
+      <c r="E4" s="709"/>
       <c r="F4" s="320" t="s">
         <v>247</v>
       </c>
@@ -8745,13 +8745,13 @@
       <c r="I4" s="321"/>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1">
-      <c r="A5" s="697"/>
-      <c r="B5" s="698"/>
+      <c r="A5" s="706"/>
+      <c r="B5" s="707"/>
       <c r="C5" s="320" t="s">
         <v>250</v>
       </c>
       <c r="D5" s="320"/>
-      <c r="E5" s="700"/>
+      <c r="E5" s="709"/>
       <c r="F5" s="320" t="s">
         <v>251</v>
       </c>
@@ -8770,17 +8770,17 @@
       <c r="B6" s="324" t="s">
         <v>253</v>
       </c>
-      <c r="C6" s="703" t="s">
+      <c r="C6" s="712" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="704"/>
-      <c r="E6" s="704"/>
-      <c r="F6" s="705" t="s">
+      <c r="D6" s="696"/>
+      <c r="E6" s="696"/>
+      <c r="F6" s="713" t="s">
         <v>255</v>
       </c>
-      <c r="G6" s="704"/>
-      <c r="H6" s="704"/>
-      <c r="I6" s="706"/>
+      <c r="G6" s="696"/>
+      <c r="H6" s="696"/>
+      <c r="I6" s="697"/>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1">
       <c r="A7" s="323">
@@ -8789,15 +8789,15 @@
       <c r="B7" s="324" t="s">
         <v>256</v>
       </c>
-      <c r="C7" s="710" t="s">
+      <c r="C7" s="700" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="711"/>
-      <c r="E7" s="711"/>
-      <c r="F7" s="704"/>
-      <c r="G7" s="704"/>
-      <c r="H7" s="704"/>
-      <c r="I7" s="706"/>
+      <c r="D7" s="701"/>
+      <c r="E7" s="701"/>
+      <c r="F7" s="696"/>
+      <c r="G7" s="696"/>
+      <c r="H7" s="696"/>
+      <c r="I7" s="697"/>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1">
       <c r="A8" s="323">
@@ -8806,15 +8806,15 @@
       <c r="B8" s="325" t="s">
         <v>258</v>
       </c>
-      <c r="C8" s="710" t="s">
+      <c r="C8" s="700" t="s">
         <v>259</v>
       </c>
-      <c r="D8" s="711"/>
-      <c r="E8" s="711"/>
-      <c r="F8" s="704"/>
-      <c r="G8" s="704"/>
-      <c r="H8" s="704"/>
-      <c r="I8" s="706"/>
+      <c r="D8" s="701"/>
+      <c r="E8" s="701"/>
+      <c r="F8" s="696"/>
+      <c r="G8" s="696"/>
+      <c r="H8" s="696"/>
+      <c r="I8" s="697"/>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1">
       <c r="A9" s="323">
@@ -8823,15 +8823,15 @@
       <c r="B9" s="325" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="710" t="s">
+      <c r="C9" s="700" t="s">
         <v>260</v>
       </c>
-      <c r="D9" s="711"/>
-      <c r="E9" s="711"/>
-      <c r="F9" s="704"/>
-      <c r="G9" s="704"/>
-      <c r="H9" s="704"/>
-      <c r="I9" s="706"/>
+      <c r="D9" s="701"/>
+      <c r="E9" s="701"/>
+      <c r="F9" s="696"/>
+      <c r="G9" s="696"/>
+      <c r="H9" s="696"/>
+      <c r="I9" s="697"/>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1">
       <c r="A10" s="323">
@@ -8840,15 +8840,15 @@
       <c r="B10" s="325" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="710" t="s">
+      <c r="C10" s="700" t="s">
         <v>261</v>
       </c>
-      <c r="D10" s="711"/>
-      <c r="E10" s="711"/>
-      <c r="F10" s="704"/>
-      <c r="G10" s="704"/>
-      <c r="H10" s="704"/>
-      <c r="I10" s="706"/>
+      <c r="D10" s="701"/>
+      <c r="E10" s="701"/>
+      <c r="F10" s="696"/>
+      <c r="G10" s="696"/>
+      <c r="H10" s="696"/>
+      <c r="I10" s="697"/>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1">
       <c r="A11" s="323">
@@ -8857,17 +8857,17 @@
       <c r="B11" s="325" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="710" t="s">
+      <c r="C11" s="700" t="s">
         <v>262</v>
       </c>
-      <c r="D11" s="711"/>
-      <c r="E11" s="711"/>
-      <c r="F11" s="707" t="s">
+      <c r="D11" s="701"/>
+      <c r="E11" s="701"/>
+      <c r="F11" s="695" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="704"/>
-      <c r="H11" s="704"/>
-      <c r="I11" s="706"/>
+      <c r="G11" s="696"/>
+      <c r="H11" s="696"/>
+      <c r="I11" s="697"/>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1">
       <c r="A12" s="323">
@@ -8876,15 +8876,15 @@
       <c r="B12" s="325" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="710" t="s">
+      <c r="C12" s="700" t="s">
         <v>264</v>
       </c>
-      <c r="D12" s="711"/>
-      <c r="E12" s="711"/>
-      <c r="F12" s="704"/>
-      <c r="G12" s="704"/>
-      <c r="H12" s="704"/>
-      <c r="I12" s="706"/>
+      <c r="D12" s="701"/>
+      <c r="E12" s="701"/>
+      <c r="F12" s="696"/>
+      <c r="G12" s="696"/>
+      <c r="H12" s="696"/>
+      <c r="I12" s="697"/>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A13" s="326">
@@ -8893,13 +8893,13 @@
       <c r="B13" s="327" t="s">
         <v>265</v>
       </c>
-      <c r="C13" s="710"/>
-      <c r="D13" s="711"/>
-      <c r="E13" s="711"/>
-      <c r="F13" s="704"/>
-      <c r="G13" s="704"/>
-      <c r="H13" s="704"/>
-      <c r="I13" s="706"/>
+      <c r="C13" s="700"/>
+      <c r="D13" s="701"/>
+      <c r="E13" s="701"/>
+      <c r="F13" s="696"/>
+      <c r="G13" s="696"/>
+      <c r="H13" s="696"/>
+      <c r="I13" s="697"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickBot="1">
       <c r="A14" s="328">
@@ -8908,16 +8908,21 @@
       <c r="B14" s="329" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="712"/>
-      <c r="D14" s="713"/>
-      <c r="E14" s="713"/>
-      <c r="F14" s="708"/>
-      <c r="G14" s="708"/>
-      <c r="H14" s="708"/>
-      <c r="I14" s="709"/>
+      <c r="C14" s="702"/>
+      <c r="D14" s="703"/>
+      <c r="E14" s="703"/>
+      <c r="F14" s="698"/>
+      <c r="G14" s="698"/>
+      <c r="H14" s="698"/>
+      <c r="I14" s="699"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A2:B5"/>
+    <mergeCell ref="E2:E5"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:I10"/>
     <mergeCell ref="F11:I14"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
@@ -8927,11 +8932,6 @@
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C14:E14"/>
-    <mergeCell ref="A2:B5"/>
-    <mergeCell ref="E2:E5"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:I10"/>
   </mergeCells>
   <phoneticPr fontId="60" type="noConversion"/>
   <dataValidations count="1">
@@ -9016,7 +9016,7 @@
         <v>206</v>
       </c>
       <c r="C4" s="720" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D4" s="722" t="s">
         <v>207</v>
@@ -9236,17 +9236,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A1" s="785" t="s">
+      <c r="A1" s="728" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="786"/>
-      <c r="C1" s="786"/>
-      <c r="D1" s="786"/>
-      <c r="E1" s="786"/>
-      <c r="F1" s="786"/>
-      <c r="G1" s="786"/>
-      <c r="H1" s="786"/>
-      <c r="I1" s="786"/>
+      <c r="B1" s="729"/>
+      <c r="C1" s="729"/>
+      <c r="D1" s="729"/>
+      <c r="E1" s="729"/>
+      <c r="F1" s="729"/>
+      <c r="G1" s="729"/>
+      <c r="H1" s="729"/>
+      <c r="I1" s="729"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -9266,11 +9266,11 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A2" s="785" t="s">
+      <c r="A2" s="728" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="787"/>
-      <c r="C2" s="787"/>
+      <c r="B2" s="730"/>
+      <c r="C2" s="730"/>
       <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -9490,13 +9490,13 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A8" s="788" t="s">
-        <v>384</v>
-      </c>
-      <c r="B8" s="761"/>
-      <c r="C8" s="761"/>
-      <c r="D8" s="761"/>
-      <c r="E8" s="762"/>
+      <c r="A8" s="731" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8" s="732"/>
+      <c r="C8" s="732"/>
+      <c r="D8" s="732"/>
+      <c r="E8" s="733"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
       <c r="H8" s="18"/>
@@ -9725,11 +9725,11 @@
       <c r="Z18" s="20"/>
     </row>
     <row r="19" spans="1:26" ht="33.75" customHeight="1">
-      <c r="A19" s="789" t="s">
+      <c r="A19" s="734" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="761"/>
-      <c r="C19" s="762"/>
+      <c r="B19" s="732"/>
+      <c r="C19" s="733"/>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
@@ -9755,11 +9755,11 @@
       <c r="Z19" s="20"/>
     </row>
     <row r="20" spans="1:26" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A20" s="785" t="s">
+      <c r="A20" s="728" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="787"/>
-      <c r="C20" s="787"/>
+      <c r="B20" s="730"/>
+      <c r="C20" s="730"/>
       <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -9786,17 +9786,17 @@
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="9"/>
-      <c r="B21" s="780" t="s">
+      <c r="B21" s="723" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="782" t="s">
+      <c r="C21" s="725" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="783"/>
-      <c r="E21" s="782" t="s">
+      <c r="D21" s="726"/>
+      <c r="E21" s="725" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="784"/>
+      <c r="F21" s="727"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
@@ -9820,7 +9820,7 @@
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="9"/>
-      <c r="B22" s="781"/>
+      <c r="B22" s="724"/>
       <c r="C22" s="24" t="s">
         <v>17</v>
       </c>
@@ -10514,11 +10514,11 @@
       <c r="A45" s="760" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="761"/>
-      <c r="C45" s="761"/>
-      <c r="D45" s="761"/>
-      <c r="E45" s="761"/>
-      <c r="F45" s="762"/>
+      <c r="B45" s="732"/>
+      <c r="C45" s="732"/>
+      <c r="D45" s="732"/>
+      <c r="E45" s="732"/>
+      <c r="F45" s="733"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="4"/>
@@ -10914,11 +10914,11 @@
       <c r="A58" s="760" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="763"/>
-      <c r="C58" s="763"/>
-      <c r="D58" s="763"/>
-      <c r="E58" s="763"/>
-      <c r="F58" s="763"/>
+      <c r="B58" s="761"/>
+      <c r="C58" s="761"/>
+      <c r="D58" s="761"/>
+      <c r="E58" s="761"/>
+      <c r="F58" s="761"/>
       <c r="G58" s="33"/>
       <c r="H58" s="33"/>
       <c r="I58" s="34"/>
@@ -11025,13 +11025,13 @@
       <c r="Z61" s="9"/>
     </row>
     <row r="63" spans="1:26" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A63" s="764" t="s">
+      <c r="A63" s="762" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="761"/>
-      <c r="C63" s="761"/>
-      <c r="D63" s="761"/>
-      <c r="E63" s="761"/>
+      <c r="B63" s="732"/>
+      <c r="C63" s="732"/>
+      <c r="D63" s="732"/>
+      <c r="E63" s="732"/>
       <c r="F63" s="35"/>
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
@@ -11055,53 +11055,53 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="65" spans="1:35" ht="17.5">
-      <c r="A65" s="765" t="s">
+      <c r="A65" s="735" t="s">
         <v>25</v>
       </c>
-      <c r="B65" s="766"/>
-      <c r="C65" s="766"/>
-      <c r="D65" s="766"/>
-      <c r="E65" s="766"/>
+      <c r="B65" s="736"/>
+      <c r="C65" s="736"/>
+      <c r="D65" s="736"/>
+      <c r="E65" s="736"/>
       <c r="F65" s="36"/>
-      <c r="G65" s="765" t="s">
+      <c r="G65" s="735" t="s">
         <v>26</v>
       </c>
-      <c r="H65" s="766"/>
-      <c r="I65" s="766"/>
-      <c r="J65" s="766"/>
-      <c r="K65" s="766"/>
+      <c r="H65" s="736"/>
+      <c r="I65" s="736"/>
+      <c r="J65" s="736"/>
+      <c r="K65" s="736"/>
       <c r="L65" s="36"/>
-      <c r="M65" s="765" t="s">
+      <c r="M65" s="735" t="s">
         <v>27</v>
       </c>
-      <c r="N65" s="766"/>
-      <c r="O65" s="766"/>
-      <c r="P65" s="766"/>
-      <c r="Q65" s="766"/>
+      <c r="N65" s="736"/>
+      <c r="O65" s="736"/>
+      <c r="P65" s="736"/>
+      <c r="Q65" s="736"/>
       <c r="R65" s="36"/>
-      <c r="S65" s="765" t="s">
+      <c r="S65" s="735" t="s">
         <v>28</v>
       </c>
-      <c r="T65" s="766"/>
-      <c r="U65" s="766"/>
-      <c r="V65" s="766"/>
-      <c r="W65" s="766"/>
+      <c r="T65" s="736"/>
+      <c r="U65" s="736"/>
+      <c r="V65" s="736"/>
+      <c r="W65" s="736"/>
       <c r="X65" s="36"/>
-      <c r="Y65" s="765" t="s">
+      <c r="Y65" s="735" t="s">
         <v>29</v>
       </c>
-      <c r="Z65" s="766"/>
-      <c r="AA65" s="774"/>
-      <c r="AB65" s="774"/>
-      <c r="AC65" s="774"/>
+      <c r="Z65" s="736"/>
+      <c r="AA65" s="737"/>
+      <c r="AB65" s="737"/>
+      <c r="AC65" s="737"/>
       <c r="AD65" s="37"/>
-      <c r="AE65" s="765" t="s">
+      <c r="AE65" s="735" t="s">
         <v>30</v>
       </c>
-      <c r="AF65" s="774"/>
-      <c r="AG65" s="774"/>
-      <c r="AH65" s="774"/>
-      <c r="AI65" s="774"/>
+      <c r="AF65" s="737"/>
+      <c r="AG65" s="737"/>
+      <c r="AH65" s="737"/>
+      <c r="AI65" s="737"/>
     </row>
     <row r="66" spans="1:35" ht="31">
       <c r="A66" s="38" t="s">
@@ -11201,13 +11201,13 @@
       </c>
     </row>
     <row r="67" spans="1:35" ht="26">
-      <c r="A67" s="740" t="s">
+      <c r="A67" s="754" t="s">
         <v>33</v>
       </c>
       <c r="B67" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="C67" s="738" t="s">
+      <c r="C67" s="757" t="s">
         <v>35</v>
       </c>
       <c r="D67" s="46" t="s">
@@ -11215,13 +11215,13 @@
       </c>
       <c r="E67" s="47"/>
       <c r="F67" s="36"/>
-      <c r="G67" s="740" t="s">
+      <c r="G67" s="754" t="s">
         <v>37</v>
       </c>
       <c r="H67" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I67" s="738" t="s">
+      <c r="I67" s="757" t="s">
         <v>38</v>
       </c>
       <c r="J67" s="49" t="s">
@@ -11229,13 +11229,13 @@
       </c>
       <c r="K67" s="50"/>
       <c r="L67" s="36"/>
-      <c r="M67" s="775" t="s">
+      <c r="M67" s="738" t="s">
         <v>40</v>
       </c>
       <c r="N67" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="O67" s="775" t="s">
+      <c r="O67" s="738" t="s">
         <v>41</v>
       </c>
       <c r="P67" s="52" t="s">
@@ -11243,13 +11243,13 @@
       </c>
       <c r="Q67" s="53"/>
       <c r="R67" s="36"/>
-      <c r="S67" s="727" t="s">
+      <c r="S67" s="740" t="s">
         <v>43</v>
       </c>
       <c r="T67" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="U67" s="741" t="s">
+      <c r="U67" s="742" t="s">
         <v>44</v>
       </c>
       <c r="V67" s="55" t="s">
@@ -11257,19 +11257,19 @@
       </c>
       <c r="W67" s="56"/>
       <c r="X67" s="36"/>
-      <c r="Y67" s="727" t="s">
+      <c r="Y67" s="740" t="s">
         <v>46</v>
       </c>
       <c r="Z67" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AA67" s="741" t="s">
+      <c r="AA67" s="742" t="s">
         <v>47</v>
       </c>
       <c r="AB67" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="AC67" s="777" t="s">
+      <c r="AC67" s="746" t="s">
         <v>49</v>
       </c>
       <c r="AD67" s="37"/>
@@ -11288,59 +11288,59 @@
       <c r="AI67" s="60"/>
     </row>
     <row r="68" spans="1:35" ht="42">
-      <c r="A68" s="732"/>
+      <c r="A68" s="755"/>
       <c r="B68" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="C68" s="739"/>
+      <c r="C68" s="758"/>
       <c r="D68" s="49" t="s">
         <v>53</v>
       </c>
       <c r="E68" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="F68" s="767" t="s">
+      <c r="F68" s="763" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="732"/>
+      <c r="G68" s="755"/>
       <c r="H68" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="I68" s="739"/>
+      <c r="I68" s="758"/>
       <c r="J68" s="49" t="s">
         <v>55</v>
       </c>
       <c r="K68" s="62"/>
       <c r="L68" s="36"/>
-      <c r="M68" s="744"/>
+      <c r="M68" s="739"/>
       <c r="N68" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="O68" s="744"/>
+      <c r="O68" s="739"/>
       <c r="P68" s="52" t="s">
         <v>56</v>
       </c>
       <c r="Q68" s="53"/>
       <c r="R68" s="36"/>
-      <c r="S68" s="728"/>
+      <c r="S68" s="741"/>
       <c r="T68" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="U68" s="734"/>
+      <c r="U68" s="743"/>
       <c r="V68" s="64" t="s">
         <v>57</v>
       </c>
       <c r="W68" s="65"/>
       <c r="X68" s="36"/>
-      <c r="Y68" s="728"/>
+      <c r="Y68" s="741"/>
       <c r="Z68" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AA68" s="742"/>
+      <c r="AA68" s="745"/>
       <c r="AB68" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="AC68" s="749"/>
+      <c r="AC68" s="747"/>
       <c r="AD68" s="37"/>
       <c r="AE68" s="67" t="s">
         <v>59</v>
@@ -11357,65 +11357,65 @@
       <c r="AI68" s="69"/>
     </row>
     <row r="69" spans="1:35" ht="42">
-      <c r="A69" s="732"/>
+      <c r="A69" s="755"/>
       <c r="B69" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="739"/>
+      <c r="C69" s="758"/>
       <c r="D69" s="68" t="s">
         <v>61</v>
       </c>
       <c r="E69" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="F69" s="768"/>
-      <c r="G69" s="732"/>
+      <c r="F69" s="764"/>
+      <c r="G69" s="755"/>
       <c r="H69" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="I69" s="739"/>
+      <c r="I69" s="758"/>
       <c r="J69" s="49" t="s">
         <v>63</v>
       </c>
       <c r="K69" s="65"/>
       <c r="L69" s="36"/>
-      <c r="M69" s="744"/>
+      <c r="M69" s="739"/>
       <c r="N69" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O69" s="744"/>
+      <c r="O69" s="739"/>
       <c r="P69" s="52" t="s">
         <v>64</v>
       </c>
       <c r="Q69" s="53"/>
       <c r="R69" s="36"/>
-      <c r="S69" s="728"/>
+      <c r="S69" s="741"/>
       <c r="T69" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="U69" s="734"/>
+      <c r="U69" s="743"/>
       <c r="V69" s="72" t="s">
         <v>65</v>
       </c>
       <c r="W69" s="65"/>
       <c r="X69" s="36"/>
-      <c r="Y69" s="728"/>
+      <c r="Y69" s="741"/>
       <c r="Z69" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AA69" s="742"/>
+      <c r="AA69" s="745"/>
       <c r="AB69" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="AC69" s="749"/>
+      <c r="AC69" s="747"/>
       <c r="AD69" s="37"/>
-      <c r="AE69" s="778" t="s">
+      <c r="AE69" s="748" t="s">
         <v>67</v>
       </c>
       <c r="AF69" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="AG69" s="775" t="s">
+      <c r="AG69" s="738" t="s">
         <v>68</v>
       </c>
       <c r="AH69" s="75" t="s">
@@ -11424,39 +11424,39 @@
       <c r="AI69" s="69"/>
     </row>
     <row r="70" spans="1:35" ht="14">
-      <c r="A70" s="769" t="s">
+      <c r="A70" s="751" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="C70" s="741" t="s">
+      <c r="C70" s="742" t="s">
         <v>71</v>
       </c>
       <c r="D70" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="E70" s="770" t="s">
+      <c r="E70" s="752" t="s">
         <v>73</v>
       </c>
       <c r="F70" s="36"/>
-      <c r="G70" s="732"/>
+      <c r="G70" s="755"/>
       <c r="H70" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="I70" s="739"/>
+      <c r="I70" s="758"/>
       <c r="J70" s="68" t="s">
         <v>74</v>
       </c>
       <c r="K70" s="78"/>
       <c r="L70" s="36"/>
-      <c r="M70" s="775" t="s">
+      <c r="M70" s="738" t="s">
         <v>40</v>
       </c>
       <c r="N70" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="O70" s="776" t="s">
+      <c r="O70" s="744" t="s">
         <v>75</v>
       </c>
       <c r="P70" s="52" t="s">
@@ -11464,54 +11464,54 @@
       </c>
       <c r="Q70" s="53"/>
       <c r="R70" s="36"/>
-      <c r="S70" s="728"/>
+      <c r="S70" s="741"/>
       <c r="T70" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="U70" s="734"/>
+      <c r="U70" s="743"/>
       <c r="V70" s="72" t="s">
         <v>77</v>
       </c>
       <c r="W70" s="65"/>
       <c r="X70" s="36"/>
-      <c r="Y70" s="728"/>
+      <c r="Y70" s="741"/>
       <c r="Z70" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AA70" s="742"/>
+      <c r="AA70" s="745"/>
       <c r="AB70" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="AC70" s="749"/>
+      <c r="AC70" s="747"/>
       <c r="AD70" s="37"/>
-      <c r="AE70" s="704"/>
+      <c r="AE70" s="696"/>
       <c r="AF70" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="AG70" s="704"/>
+      <c r="AG70" s="696"/>
       <c r="AH70" s="81" t="s">
         <v>79</v>
       </c>
       <c r="AI70" s="69"/>
     </row>
     <row r="71" spans="1:35" ht="52">
-      <c r="A71" s="728"/>
+      <c r="A71" s="741"/>
       <c r="B71" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="C71" s="734"/>
+      <c r="C71" s="743"/>
       <c r="D71" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="E71" s="771"/>
+      <c r="E71" s="753"/>
       <c r="F71" s="36"/>
-      <c r="G71" s="772" t="s">
+      <c r="G71" s="756" t="s">
         <v>37</v>
       </c>
       <c r="H71" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="I71" s="773" t="s">
+      <c r="I71" s="759" t="s">
         <v>81</v>
       </c>
       <c r="J71" s="83" t="s">
@@ -11519,94 +11519,94 @@
       </c>
       <c r="K71" s="84"/>
       <c r="L71" s="36"/>
-      <c r="M71" s="744"/>
+      <c r="M71" s="739"/>
       <c r="N71" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="O71" s="744"/>
+      <c r="O71" s="739"/>
       <c r="P71" s="52" t="s">
         <v>83</v>
       </c>
       <c r="Q71" s="53"/>
       <c r="R71" s="36"/>
-      <c r="S71" s="728"/>
+      <c r="S71" s="741"/>
       <c r="T71" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="U71" s="734"/>
+      <c r="U71" s="743"/>
       <c r="V71" s="72" t="s">
         <v>84</v>
       </c>
       <c r="W71" s="65"/>
       <c r="X71" s="36"/>
-      <c r="Y71" s="728"/>
+      <c r="Y71" s="741"/>
       <c r="Z71" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AA71" s="742"/>
+      <c r="AA71" s="745"/>
       <c r="AB71" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="AC71" s="749"/>
+      <c r="AC71" s="747"/>
       <c r="AD71" s="37"/>
-      <c r="AE71" s="704"/>
+      <c r="AE71" s="696"/>
       <c r="AF71" s="80" t="s">
         <v>34</v>
       </c>
-      <c r="AG71" s="704"/>
+      <c r="AG71" s="696"/>
       <c r="AH71" s="81" t="s">
         <v>86</v>
       </c>
       <c r="AI71" s="69"/>
     </row>
     <row r="72" spans="1:35" ht="39">
-      <c r="A72" s="728"/>
+      <c r="A72" s="741"/>
       <c r="B72" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C72" s="734"/>
+      <c r="C72" s="743"/>
       <c r="D72" s="49" t="s">
         <v>87</v>
       </c>
-      <c r="E72" s="771"/>
+      <c r="E72" s="753"/>
       <c r="F72" s="36"/>
-      <c r="G72" s="728"/>
+      <c r="G72" s="741"/>
       <c r="H72" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="I72" s="734"/>
+      <c r="I72" s="743"/>
       <c r="J72" s="88" t="s">
         <v>88</v>
       </c>
       <c r="K72" s="89"/>
       <c r="L72" s="36"/>
-      <c r="M72" s="744"/>
+      <c r="M72" s="739"/>
       <c r="N72" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="O72" s="744"/>
+      <c r="O72" s="739"/>
       <c r="P72" s="52" t="s">
         <v>89</v>
       </c>
       <c r="Q72" s="53"/>
       <c r="R72" s="36"/>
-      <c r="S72" s="728"/>
+      <c r="S72" s="741"/>
       <c r="T72" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="U72" s="734"/>
+      <c r="U72" s="743"/>
       <c r="V72" s="90" t="s">
         <v>90</v>
       </c>
       <c r="W72" s="78"/>
       <c r="X72" s="36"/>
-      <c r="Y72" s="727" t="s">
+      <c r="Y72" s="740" t="s">
         <v>91</v>
       </c>
       <c r="Z72" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AA72" s="741" t="s">
+      <c r="AA72" s="742" t="s">
         <v>44</v>
       </c>
       <c r="AB72" s="57" t="s">
@@ -11621,59 +11621,59 @@
       <c r="AI72" s="37"/>
     </row>
     <row r="73" spans="1:35" ht="42">
-      <c r="A73" s="728"/>
+      <c r="A73" s="741"/>
       <c r="B73" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C73" s="734"/>
+      <c r="C73" s="743"/>
       <c r="D73" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="E73" s="771"/>
+      <c r="E73" s="753"/>
       <c r="F73" s="36"/>
-      <c r="G73" s="728"/>
+      <c r="G73" s="741"/>
       <c r="H73" s="93" t="s">
         <v>34</v>
       </c>
-      <c r="I73" s="734"/>
+      <c r="I73" s="743"/>
       <c r="J73" s="94" t="s">
         <v>93</v>
       </c>
       <c r="K73" s="89"/>
       <c r="L73" s="36"/>
-      <c r="M73" s="744"/>
+      <c r="M73" s="739"/>
       <c r="N73" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O73" s="744"/>
+      <c r="O73" s="739"/>
       <c r="P73" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="Q73" s="745" t="s">
+      <c r="Q73" s="780" t="s">
         <v>49</v>
       </c>
       <c r="R73" s="36"/>
-      <c r="S73" s="727" t="s">
+      <c r="S73" s="740" t="s">
         <v>43</v>
       </c>
       <c r="T73" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="U73" s="741" t="s">
+      <c r="U73" s="742" t="s">
         <v>47</v>
       </c>
       <c r="V73" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="W73" s="779" t="s">
+      <c r="W73" s="749" t="s">
         <v>49</v>
       </c>
       <c r="X73" s="36"/>
-      <c r="Y73" s="728"/>
+      <c r="Y73" s="741"/>
       <c r="Z73" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AA73" s="742"/>
+      <c r="AA73" s="745"/>
       <c r="AB73" s="66" t="s">
         <v>57</v>
       </c>
@@ -11686,51 +11686,51 @@
       <c r="AI73" s="37"/>
     </row>
     <row r="74" spans="1:35" ht="52">
-      <c r="A74" s="728"/>
+      <c r="A74" s="741"/>
       <c r="B74" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C74" s="734"/>
+      <c r="C74" s="743"/>
       <c r="D74" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="E74" s="771"/>
+      <c r="E74" s="753"/>
       <c r="F74" s="36"/>
-      <c r="G74" s="728"/>
+      <c r="G74" s="741"/>
       <c r="H74" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I74" s="734"/>
+      <c r="I74" s="743"/>
       <c r="J74" s="94" t="s">
         <v>97</v>
       </c>
       <c r="K74" s="89"/>
       <c r="L74" s="36"/>
-      <c r="M74" s="744"/>
+      <c r="M74" s="739"/>
       <c r="N74" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="O74" s="744"/>
+      <c r="O74" s="739"/>
       <c r="P74" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="Q74" s="744"/>
+      <c r="Q74" s="739"/>
       <c r="R74" s="36"/>
-      <c r="S74" s="728"/>
+      <c r="S74" s="741"/>
       <c r="T74" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="U74" s="734"/>
+      <c r="U74" s="743"/>
       <c r="V74" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="W74" s="730"/>
+      <c r="W74" s="750"/>
       <c r="X74" s="36"/>
-      <c r="Y74" s="728"/>
+      <c r="Y74" s="741"/>
       <c r="Z74" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AA74" s="742"/>
+      <c r="AA74" s="745"/>
       <c r="AB74" s="98" t="s">
         <v>90</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="AI74" s="37"/>
     </row>
     <row r="75" spans="1:35" ht="39">
-      <c r="A75" s="728"/>
+      <c r="A75" s="741"/>
       <c r="B75" s="45" t="s">
         <v>60</v>
       </c>
@@ -11751,51 +11751,51 @@
       <c r="D75" s="68" t="s">
         <v>100</v>
       </c>
-      <c r="E75" s="771"/>
+      <c r="E75" s="753"/>
       <c r="F75" s="36"/>
-      <c r="G75" s="728"/>
+      <c r="G75" s="741"/>
       <c r="H75" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I75" s="734"/>
+      <c r="I75" s="743"/>
       <c r="J75" s="94" t="s">
         <v>101</v>
       </c>
       <c r="K75" s="89"/>
       <c r="L75" s="36"/>
-      <c r="M75" s="743" t="s">
+      <c r="M75" s="779" t="s">
         <v>40</v>
       </c>
       <c r="N75" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="O75" s="743" t="s">
+      <c r="O75" s="779" t="s">
         <v>102</v>
       </c>
       <c r="P75" s="102" t="s">
         <v>103</v>
       </c>
-      <c r="Q75" s="746" t="s">
+      <c r="Q75" s="781" t="s">
         <v>104</v>
       </c>
       <c r="R75" s="36"/>
-      <c r="S75" s="728"/>
+      <c r="S75" s="741"/>
       <c r="T75" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="U75" s="734"/>
+      <c r="U75" s="743"/>
       <c r="V75" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="W75" s="730"/>
+      <c r="W75" s="750"/>
       <c r="X75" s="36"/>
-      <c r="Y75" s="740" t="s">
+      <c r="Y75" s="754" t="s">
         <v>91</v>
       </c>
       <c r="Z75" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="AA75" s="741" t="s">
+      <c r="AA75" s="742" t="s">
         <v>47</v>
       </c>
       <c r="AB75" s="103" t="s">
@@ -11826,41 +11826,41 @@
         <v>108</v>
       </c>
       <c r="F76" s="36"/>
-      <c r="G76" s="728"/>
+      <c r="G76" s="741"/>
       <c r="H76" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="I76" s="734"/>
+      <c r="I76" s="743"/>
       <c r="J76" s="94" t="s">
         <v>109</v>
       </c>
       <c r="K76" s="89"/>
       <c r="L76" s="36"/>
-      <c r="M76" s="744"/>
+      <c r="M76" s="739"/>
       <c r="N76" s="101" t="s">
         <v>34</v>
       </c>
-      <c r="O76" s="744"/>
+      <c r="O76" s="739"/>
       <c r="P76" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="Q76" s="744"/>
+      <c r="Q76" s="739"/>
       <c r="R76" s="36"/>
-      <c r="S76" s="728"/>
+      <c r="S76" s="741"/>
       <c r="T76" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="U76" s="734"/>
+      <c r="U76" s="743"/>
       <c r="V76" s="72" t="s">
         <v>111</v>
       </c>
-      <c r="W76" s="730"/>
+      <c r="W76" s="750"/>
       <c r="X76" s="36"/>
-      <c r="Y76" s="732"/>
+      <c r="Y76" s="755"/>
       <c r="Z76" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="AA76" s="742"/>
+      <c r="AA76" s="745"/>
       <c r="AB76" s="105" t="s">
         <v>111</v>
       </c>
@@ -11879,41 +11879,41 @@
       <c r="D77" s="36"/>
       <c r="E77" s="36"/>
       <c r="F77" s="36"/>
-      <c r="G77" s="728"/>
+      <c r="G77" s="741"/>
       <c r="H77" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="I77" s="734"/>
+      <c r="I77" s="743"/>
       <c r="J77" s="107" t="s">
         <v>112</v>
       </c>
       <c r="K77" s="108"/>
       <c r="L77" s="36"/>
-      <c r="M77" s="744"/>
+      <c r="M77" s="739"/>
       <c r="N77" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="O77" s="744"/>
+      <c r="O77" s="739"/>
       <c r="P77" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="Q77" s="744"/>
+      <c r="Q77" s="739"/>
       <c r="R77" s="36"/>
-      <c r="S77" s="728"/>
+      <c r="S77" s="741"/>
       <c r="T77" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="U77" s="734"/>
+      <c r="U77" s="743"/>
       <c r="V77" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="W77" s="730"/>
+      <c r="W77" s="750"/>
       <c r="X77" s="36"/>
-      <c r="Y77" s="732"/>
+      <c r="Y77" s="755"/>
       <c r="Z77" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="AA77" s="742"/>
+      <c r="AA77" s="745"/>
       <c r="AB77" s="109" t="s">
         <v>115</v>
       </c>
@@ -11932,13 +11932,13 @@
       <c r="D78" s="36"/>
       <c r="E78" s="36"/>
       <c r="F78" s="36"/>
-      <c r="G78" s="731" t="s">
+      <c r="G78" s="787" t="s">
         <v>37</v>
       </c>
       <c r="H78" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="I78" s="733" t="s">
+      <c r="I78" s="788" t="s">
         <v>116</v>
       </c>
       <c r="J78" s="57" t="s">
@@ -11946,13 +11946,13 @@
       </c>
       <c r="K78" s="56"/>
       <c r="L78" s="36"/>
-      <c r="M78" s="747" t="s">
+      <c r="M78" s="782" t="s">
         <v>40</v>
       </c>
       <c r="N78" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="O78" s="747" t="s">
+      <c r="O78" s="782" t="s">
         <v>118</v>
       </c>
       <c r="P78" s="111" t="s">
@@ -11960,21 +11960,21 @@
       </c>
       <c r="Q78" s="53"/>
       <c r="R78" s="36"/>
-      <c r="S78" s="728"/>
+      <c r="S78" s="741"/>
       <c r="T78" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="U78" s="734"/>
+      <c r="U78" s="743"/>
       <c r="V78" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="W78" s="730"/>
+      <c r="W78" s="750"/>
       <c r="X78" s="36"/>
-      <c r="Y78" s="732"/>
+      <c r="Y78" s="755"/>
       <c r="Z78" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="AA78" s="742"/>
+      <c r="AA78" s="745"/>
       <c r="AB78" s="109" t="s">
         <v>121</v>
       </c>
@@ -11993,47 +11993,47 @@
       <c r="D79" s="36"/>
       <c r="E79" s="36"/>
       <c r="F79" s="36"/>
-      <c r="G79" s="732"/>
+      <c r="G79" s="755"/>
       <c r="H79" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="I79" s="734"/>
+      <c r="I79" s="743"/>
       <c r="J79" s="66" t="s">
         <v>55</v>
       </c>
       <c r="K79" s="65"/>
       <c r="L79" s="36"/>
-      <c r="M79" s="744"/>
+      <c r="M79" s="739"/>
       <c r="N79" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="O79" s="744"/>
+      <c r="O79" s="739"/>
       <c r="P79" s="111" t="s">
         <v>122</v>
       </c>
       <c r="Q79" s="53"/>
       <c r="R79" s="36"/>
-      <c r="S79" s="740" t="s">
+      <c r="S79" s="754" t="s">
         <v>43</v>
       </c>
       <c r="T79" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="U79" s="738" t="s">
+      <c r="U79" s="757" t="s">
         <v>123</v>
       </c>
       <c r="V79" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="W79" s="729" t="s">
+      <c r="W79" s="786" t="s">
         <v>125</v>
       </c>
       <c r="X79" s="36"/>
-      <c r="Y79" s="732"/>
+      <c r="Y79" s="755"/>
       <c r="Z79" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="AA79" s="742"/>
+      <c r="AA79" s="745"/>
       <c r="AB79" s="73" t="s">
         <v>126</v>
       </c>
@@ -12052,49 +12052,49 @@
       <c r="D80" s="36"/>
       <c r="E80" s="36"/>
       <c r="F80" s="36"/>
-      <c r="G80" s="732"/>
+      <c r="G80" s="755"/>
       <c r="H80" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I80" s="734"/>
+      <c r="I80" s="743"/>
       <c r="J80" s="49" t="s">
         <v>127</v>
       </c>
       <c r="K80" s="65"/>
       <c r="L80" s="36"/>
-      <c r="M80" s="744"/>
+      <c r="M80" s="739"/>
       <c r="N80" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="O80" s="744"/>
+      <c r="O80" s="739"/>
       <c r="P80" s="111" t="s">
         <v>128</v>
       </c>
       <c r="Q80" s="53"/>
       <c r="R80" s="36"/>
-      <c r="S80" s="732"/>
+      <c r="S80" s="755"/>
       <c r="T80" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="U80" s="739"/>
+      <c r="U80" s="758"/>
       <c r="V80" s="64" t="s">
         <v>129</v>
       </c>
-      <c r="W80" s="730"/>
+      <c r="W80" s="750"/>
       <c r="X80" s="36"/>
-      <c r="Y80" s="751" t="s">
+      <c r="Y80" s="767" t="s">
         <v>91</v>
       </c>
       <c r="Z80" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="AA80" s="753" t="s">
+      <c r="AA80" s="770" t="s">
         <v>130</v>
       </c>
       <c r="AB80" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="AC80" s="756" t="s">
+      <c r="AC80" s="773" t="s">
         <v>132</v>
       </c>
       <c r="AD80" s="37"/>
@@ -12111,45 +12111,45 @@
       <c r="D81" s="36"/>
       <c r="E81" s="36"/>
       <c r="F81" s="36"/>
-      <c r="G81" s="732"/>
+      <c r="G81" s="755"/>
       <c r="H81" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="I81" s="734"/>
+      <c r="I81" s="743"/>
       <c r="J81" s="49" t="s">
         <v>133</v>
       </c>
       <c r="K81" s="65"/>
       <c r="L81" s="36"/>
-      <c r="M81" s="744"/>
+      <c r="M81" s="739"/>
       <c r="N81" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="O81" s="744"/>
+      <c r="O81" s="739"/>
       <c r="P81" s="111" t="s">
         <v>134</v>
       </c>
       <c r="Q81" s="53"/>
       <c r="R81" s="36"/>
-      <c r="S81" s="732"/>
+      <c r="S81" s="755"/>
       <c r="T81" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="U81" s="739"/>
+      <c r="U81" s="758"/>
       <c r="V81" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="W81" s="730"/>
+      <c r="W81" s="750"/>
       <c r="X81" s="36"/>
-      <c r="Y81" s="732"/>
+      <c r="Y81" s="755"/>
       <c r="Z81" s="113" t="s">
         <v>60</v>
       </c>
-      <c r="AA81" s="750"/>
+      <c r="AA81" s="766"/>
       <c r="AB81" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="AC81" s="757"/>
+      <c r="AC81" s="774"/>
       <c r="AD81" s="37"/>
       <c r="AE81" s="37"/>
       <c r="AF81" s="37"/>
@@ -12164,45 +12164,45 @@
       <c r="D82" s="36"/>
       <c r="E82" s="36"/>
       <c r="F82" s="36"/>
-      <c r="G82" s="732"/>
+      <c r="G82" s="755"/>
       <c r="H82" s="86" t="s">
         <v>60</v>
       </c>
-      <c r="I82" s="734"/>
+      <c r="I82" s="743"/>
       <c r="J82" s="49" t="s">
         <v>137</v>
       </c>
       <c r="K82" s="65"/>
       <c r="L82" s="36"/>
-      <c r="M82" s="744"/>
+      <c r="M82" s="739"/>
       <c r="N82" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="O82" s="744"/>
+      <c r="O82" s="739"/>
       <c r="P82" s="111" t="s">
         <v>138</v>
       </c>
       <c r="Q82" s="53"/>
       <c r="R82" s="36"/>
-      <c r="S82" s="732"/>
+      <c r="S82" s="755"/>
       <c r="T82" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="U82" s="739"/>
+      <c r="U82" s="758"/>
       <c r="V82" s="72" t="s">
         <v>139</v>
       </c>
-      <c r="W82" s="730"/>
+      <c r="W82" s="750"/>
       <c r="X82" s="36"/>
-      <c r="Y82" s="732"/>
+      <c r="Y82" s="755"/>
       <c r="Z82" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="AA82" s="750"/>
+      <c r="AA82" s="766"/>
       <c r="AB82" s="115" t="s">
         <v>140</v>
       </c>
-      <c r="AC82" s="757"/>
+      <c r="AC82" s="774"/>
       <c r="AD82" s="37"/>
       <c r="AE82" s="37"/>
       <c r="AF82" s="37"/>
@@ -12217,45 +12217,45 @@
       <c r="D83" s="36"/>
       <c r="E83" s="36"/>
       <c r="F83" s="36"/>
-      <c r="G83" s="732"/>
+      <c r="G83" s="755"/>
       <c r="H83" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="I83" s="734"/>
+      <c r="I83" s="743"/>
       <c r="J83" s="68" t="s">
         <v>141</v>
       </c>
       <c r="K83" s="78"/>
       <c r="L83" s="36"/>
-      <c r="M83" s="744"/>
+      <c r="M83" s="739"/>
       <c r="N83" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="O83" s="744"/>
+      <c r="O83" s="739"/>
       <c r="P83" s="111" t="s">
         <v>142</v>
       </c>
       <c r="Q83" s="53"/>
       <c r="R83" s="36"/>
-      <c r="S83" s="732"/>
+      <c r="S83" s="755"/>
       <c r="T83" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="U83" s="739"/>
+      <c r="U83" s="758"/>
       <c r="V83" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="W83" s="730"/>
+      <c r="W83" s="750"/>
       <c r="X83" s="36"/>
-      <c r="Y83" s="732"/>
+      <c r="Y83" s="755"/>
       <c r="Z83" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="AA83" s="750"/>
+      <c r="AA83" s="766"/>
       <c r="AB83" s="115" t="s">
         <v>144</v>
       </c>
-      <c r="AC83" s="757"/>
+      <c r="AC83" s="774"/>
       <c r="AD83" s="37"/>
       <c r="AE83" s="37"/>
       <c r="AF83" s="37"/>
@@ -12270,27 +12270,27 @@
       <c r="D84" s="36"/>
       <c r="E84" s="36"/>
       <c r="F84" s="36"/>
-      <c r="G84" s="735" t="s">
+      <c r="G84" s="777" t="s">
         <v>145</v>
       </c>
       <c r="H84" s="117" t="s">
         <v>34</v>
       </c>
-      <c r="I84" s="736" t="s">
+      <c r="I84" s="778" t="s">
         <v>146</v>
       </c>
       <c r="J84" s="118" t="s">
         <v>147</v>
       </c>
-      <c r="K84" s="737" t="s">
+      <c r="K84" s="789" t="s">
         <v>49</v>
       </c>
       <c r="L84" s="36"/>
-      <c r="M84" s="744"/>
+      <c r="M84" s="739"/>
       <c r="N84" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="O84" s="744"/>
+      <c r="O84" s="739"/>
       <c r="P84" s="119" t="s">
         <v>148</v>
       </c>
@@ -12298,29 +12298,29 @@
         <v>49</v>
       </c>
       <c r="R84" s="36"/>
-      <c r="S84" s="732"/>
+      <c r="S84" s="755"/>
       <c r="T84" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="U84" s="739"/>
+      <c r="U84" s="758"/>
       <c r="V84" s="49" t="s">
-        <v>385</v>
-      </c>
-      <c r="W84" s="730"/>
+        <v>384</v>
+      </c>
+      <c r="W84" s="750"/>
       <c r="X84" s="36"/>
-      <c r="Y84" s="752" t="s">
+      <c r="Y84" s="768" t="s">
         <v>46</v>
       </c>
       <c r="Z84" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="AA84" s="754" t="s">
+      <c r="AA84" s="771" t="s">
         <v>149</v>
       </c>
       <c r="AB84" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="AC84" s="758" t="s">
+      <c r="AC84" s="775" t="s">
         <v>151</v>
       </c>
       <c r="AD84" s="37"/>
@@ -12337,15 +12337,15 @@
       <c r="D85" s="36"/>
       <c r="E85" s="36"/>
       <c r="F85" s="36"/>
-      <c r="G85" s="732"/>
+      <c r="G85" s="755"/>
       <c r="H85" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="I85" s="734"/>
+      <c r="I85" s="743"/>
       <c r="J85" s="121" t="s">
         <v>152</v>
       </c>
-      <c r="K85" s="730"/>
+      <c r="K85" s="750"/>
       <c r="L85" s="36"/>
       <c r="M85" s="36"/>
       <c r="N85" s="36"/>
@@ -12353,25 +12353,25 @@
       <c r="P85" s="79"/>
       <c r="Q85" s="36"/>
       <c r="R85" s="36"/>
-      <c r="S85" s="732"/>
+      <c r="S85" s="755"/>
       <c r="T85" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="U85" s="739"/>
+      <c r="U85" s="758"/>
       <c r="V85" s="72" t="s">
         <v>153</v>
       </c>
-      <c r="W85" s="730"/>
+      <c r="W85" s="750"/>
       <c r="X85" s="36"/>
-      <c r="Y85" s="724"/>
+      <c r="Y85" s="769"/>
       <c r="Z85" s="120" t="s">
         <v>60</v>
       </c>
-      <c r="AA85" s="755"/>
+      <c r="AA85" s="772"/>
       <c r="AB85" s="66" t="s">
         <v>154</v>
       </c>
-      <c r="AC85" s="759"/>
+      <c r="AC85" s="776"/>
       <c r="AD85" s="37"/>
       <c r="AE85" s="37"/>
       <c r="AF85" s="37"/>
@@ -12386,15 +12386,15 @@
       <c r="D86" s="36"/>
       <c r="E86" s="36"/>
       <c r="F86" s="36"/>
-      <c r="G86" s="732"/>
+      <c r="G86" s="755"/>
       <c r="H86" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I86" s="734"/>
+      <c r="I86" s="743"/>
       <c r="J86" s="121" t="s">
         <v>155</v>
       </c>
-      <c r="K86" s="730"/>
+      <c r="K86" s="750"/>
       <c r="L86" s="36"/>
       <c r="M86" s="36"/>
       <c r="N86" s="36"/>
@@ -12402,29 +12402,29 @@
       <c r="P86" s="36"/>
       <c r="Q86" s="36"/>
       <c r="R86" s="36"/>
-      <c r="S86" s="732"/>
+      <c r="S86" s="755"/>
       <c r="T86" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="U86" s="739"/>
+      <c r="U86" s="758"/>
       <c r="V86" s="72" t="s">
         <v>156</v>
       </c>
-      <c r="W86" s="730"/>
+      <c r="W86" s="750"/>
       <c r="X86" s="36"/>
-      <c r="Y86" s="727" t="s">
+      <c r="Y86" s="740" t="s">
         <v>46</v>
       </c>
       <c r="Z86" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AA86" s="741" t="s">
+      <c r="AA86" s="742" t="s">
         <v>123</v>
       </c>
       <c r="AB86" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="AC86" s="748" t="s">
+      <c r="AC86" s="765" t="s">
         <v>158</v>
       </c>
       <c r="AD86" s="37"/>
@@ -12441,15 +12441,15 @@
       <c r="D87" s="36"/>
       <c r="E87" s="36"/>
       <c r="F87" s="36"/>
-      <c r="G87" s="732"/>
+      <c r="G87" s="755"/>
       <c r="H87" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="I87" s="734"/>
+      <c r="I87" s="743"/>
       <c r="J87" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="K87" s="730"/>
+      <c r="K87" s="750"/>
       <c r="L87" s="36"/>
       <c r="M87" s="36"/>
       <c r="N87" s="36"/>
@@ -12457,25 +12457,25 @@
       <c r="P87" s="36"/>
       <c r="Q87" s="36"/>
       <c r="R87" s="36"/>
-      <c r="S87" s="732"/>
+      <c r="S87" s="755"/>
       <c r="T87" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="U87" s="739"/>
+      <c r="U87" s="758"/>
       <c r="V87" s="90" t="s">
         <v>159</v>
       </c>
-      <c r="W87" s="730"/>
+      <c r="W87" s="750"/>
       <c r="X87" s="36"/>
-      <c r="Y87" s="728"/>
+      <c r="Y87" s="741"/>
       <c r="Z87" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AA87" s="742"/>
+      <c r="AA87" s="745"/>
       <c r="AB87" s="105" t="s">
         <v>129</v>
       </c>
-      <c r="AC87" s="749"/>
+      <c r="AC87" s="747"/>
       <c r="AD87" s="37"/>
       <c r="AE87" s="37"/>
       <c r="AF87" s="37"/>
@@ -12490,15 +12490,15 @@
       <c r="D88" s="36"/>
       <c r="E88" s="36"/>
       <c r="F88" s="36"/>
-      <c r="G88" s="732"/>
+      <c r="G88" s="755"/>
       <c r="H88" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="I88" s="734"/>
+      <c r="I88" s="743"/>
       <c r="J88" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="K88" s="730"/>
+      <c r="K88" s="750"/>
       <c r="L88" s="36"/>
       <c r="M88" s="36"/>
       <c r="N88" s="36"/>
@@ -12512,15 +12512,15 @@
       <c r="V88" s="36"/>
       <c r="W88" s="36"/>
       <c r="X88" s="36"/>
-      <c r="Y88" s="728"/>
+      <c r="Y88" s="741"/>
       <c r="Z88" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AA88" s="742"/>
+      <c r="AA88" s="745"/>
       <c r="AB88" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="AC88" s="749"/>
+      <c r="AC88" s="747"/>
       <c r="AD88" s="37"/>
       <c r="AE88" s="37"/>
       <c r="AF88" s="37"/>
@@ -12535,15 +12535,15 @@
       <c r="D89" s="36"/>
       <c r="E89" s="36"/>
       <c r="F89" s="36"/>
-      <c r="G89" s="732"/>
+      <c r="G89" s="755"/>
       <c r="H89" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="I89" s="734"/>
+      <c r="I89" s="743"/>
       <c r="J89" s="121" t="s">
         <v>74</v>
       </c>
-      <c r="K89" s="730"/>
+      <c r="K89" s="750"/>
       <c r="L89" s="36"/>
       <c r="M89" s="36"/>
       <c r="N89" s="36"/>
@@ -12557,15 +12557,15 @@
       <c r="V89" s="36"/>
       <c r="W89" s="36"/>
       <c r="X89" s="36"/>
-      <c r="Y89" s="728"/>
+      <c r="Y89" s="741"/>
       <c r="Z89" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AA89" s="742"/>
+      <c r="AA89" s="745"/>
       <c r="AB89" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="AC89" s="749"/>
+      <c r="AC89" s="747"/>
       <c r="AD89" s="37"/>
       <c r="AE89" s="37"/>
       <c r="AF89" s="37"/>
@@ -12580,13 +12580,13 @@
       <c r="D90" s="36"/>
       <c r="E90" s="36"/>
       <c r="F90" s="36"/>
-      <c r="G90" s="735" t="s">
+      <c r="G90" s="777" t="s">
         <v>37</v>
       </c>
       <c r="H90" s="124" t="s">
         <v>60</v>
       </c>
-      <c r="I90" s="736" t="s">
+      <c r="I90" s="778" t="s">
         <v>162</v>
       </c>
       <c r="J90" s="125" t="s">
@@ -12606,15 +12606,15 @@
       <c r="V90" s="36"/>
       <c r="W90" s="36"/>
       <c r="X90" s="36"/>
-      <c r="Y90" s="728"/>
+      <c r="Y90" s="741"/>
       <c r="Z90" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AA90" s="742"/>
+      <c r="AA90" s="745"/>
       <c r="AB90" s="109" t="s">
         <v>153</v>
       </c>
-      <c r="AC90" s="749"/>
+      <c r="AC90" s="747"/>
       <c r="AD90" s="37"/>
       <c r="AE90" s="37"/>
       <c r="AF90" s="37"/>
@@ -12629,11 +12629,11 @@
       <c r="D91" s="36"/>
       <c r="E91" s="36"/>
       <c r="F91" s="36"/>
-      <c r="G91" s="732"/>
+      <c r="G91" s="755"/>
       <c r="H91" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="I91" s="734"/>
+      <c r="I91" s="743"/>
       <c r="J91" s="128" t="s">
         <v>122</v>
       </c>
@@ -12651,15 +12651,15 @@
       <c r="V91" s="36"/>
       <c r="W91" s="36"/>
       <c r="X91" s="36"/>
-      <c r="Y91" s="728"/>
+      <c r="Y91" s="741"/>
       <c r="Z91" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AA91" s="742"/>
+      <c r="AA91" s="745"/>
       <c r="AB91" s="109" t="s">
         <v>156</v>
       </c>
-      <c r="AC91" s="749"/>
+      <c r="AC91" s="747"/>
       <c r="AD91" s="37"/>
       <c r="AE91" s="37"/>
       <c r="AF91" s="37"/>
@@ -12674,11 +12674,11 @@
       <c r="D92" s="36"/>
       <c r="E92" s="36"/>
       <c r="F92" s="36"/>
-      <c r="G92" s="732"/>
+      <c r="G92" s="755"/>
       <c r="H92" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="734"/>
+      <c r="I92" s="743"/>
       <c r="J92" s="131" t="s">
         <v>128</v>
       </c>
@@ -12696,15 +12696,15 @@
       <c r="V92" s="36"/>
       <c r="W92" s="36"/>
       <c r="X92" s="36"/>
-      <c r="Y92" s="728"/>
+      <c r="Y92" s="741"/>
       <c r="Z92" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AA92" s="742"/>
+      <c r="AA92" s="745"/>
       <c r="AB92" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="AC92" s="749"/>
+      <c r="AC92" s="747"/>
       <c r="AD92" s="37"/>
       <c r="AE92" s="37"/>
       <c r="AF92" s="37"/>
@@ -12719,11 +12719,11 @@
       <c r="D93" s="36"/>
       <c r="E93" s="36"/>
       <c r="F93" s="36"/>
-      <c r="G93" s="732"/>
+      <c r="G93" s="755"/>
       <c r="H93" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I93" s="734"/>
+      <c r="I93" s="743"/>
       <c r="J93" s="131" t="s">
         <v>134</v>
       </c>
@@ -12741,13 +12741,13 @@
       <c r="V93" s="36"/>
       <c r="W93" s="36"/>
       <c r="X93" s="36"/>
-      <c r="Y93" s="727" t="s">
+      <c r="Y93" s="740" t="s">
         <v>91</v>
       </c>
       <c r="Z93" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="AA93" s="738" t="s">
+      <c r="AA93" s="757" t="s">
         <v>123</v>
       </c>
       <c r="AB93" s="103" t="s">
@@ -12768,11 +12768,11 @@
       <c r="D94" s="36"/>
       <c r="E94" s="36"/>
       <c r="F94" s="36"/>
-      <c r="G94" s="732"/>
+      <c r="G94" s="755"/>
       <c r="H94" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I94" s="734"/>
+      <c r="I94" s="743"/>
       <c r="J94" s="131" t="s">
         <v>138</v>
       </c>
@@ -12790,11 +12790,11 @@
       <c r="V94" s="36"/>
       <c r="W94" s="36"/>
       <c r="X94" s="36"/>
-      <c r="Y94" s="728"/>
+      <c r="Y94" s="741"/>
       <c r="Z94" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AA94" s="750"/>
+      <c r="AA94" s="766"/>
       <c r="AB94" s="105" t="s">
         <v>129</v>
       </c>
@@ -12813,11 +12813,11 @@
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
-      <c r="G95" s="732"/>
+      <c r="G95" s="755"/>
       <c r="H95" s="134" t="s">
         <v>34</v>
       </c>
-      <c r="I95" s="734"/>
+      <c r="I95" s="743"/>
       <c r="J95" s="135" t="s">
         <v>142</v>
       </c>
@@ -12835,11 +12835,11 @@
       <c r="V95" s="36"/>
       <c r="W95" s="36"/>
       <c r="X95" s="36"/>
-      <c r="Y95" s="728"/>
+      <c r="Y95" s="741"/>
       <c r="Z95" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AA95" s="750"/>
+      <c r="AA95" s="766"/>
       <c r="AB95" s="109" t="s">
         <v>135</v>
       </c>
@@ -12858,13 +12858,13 @@
       <c r="D96" s="36"/>
       <c r="E96" s="36"/>
       <c r="F96" s="36"/>
-      <c r="G96" s="723" t="s">
+      <c r="G96" s="783" t="s">
         <v>37</v>
       </c>
       <c r="H96" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="I96" s="725" t="s">
+      <c r="I96" s="784" t="s">
         <v>163</v>
       </c>
       <c r="J96" s="128" t="s">
@@ -12884,11 +12884,11 @@
       <c r="V96" s="36"/>
       <c r="W96" s="36"/>
       <c r="X96" s="36"/>
-      <c r="Y96" s="728"/>
+      <c r="Y96" s="741"/>
       <c r="Z96" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AA96" s="750"/>
+      <c r="AA96" s="766"/>
       <c r="AB96" s="123" t="s">
         <v>161</v>
       </c>
@@ -12907,11 +12907,11 @@
       <c r="D97" s="36"/>
       <c r="E97" s="36"/>
       <c r="F97" s="36"/>
-      <c r="G97" s="724"/>
+      <c r="G97" s="769"/>
       <c r="H97" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I97" s="726"/>
+      <c r="I97" s="785"/>
       <c r="J97" s="131" t="s">
         <v>165</v>
       </c>
@@ -12929,11 +12929,11 @@
       <c r="V97" s="36"/>
       <c r="W97" s="36"/>
       <c r="X97" s="36"/>
-      <c r="Y97" s="728"/>
+      <c r="Y97" s="741"/>
       <c r="Z97" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AA97" s="750"/>
+      <c r="AA97" s="766"/>
       <c r="AB97" s="109" t="s">
         <v>143</v>
       </c>
@@ -12952,11 +12952,11 @@
       <c r="D98" s="36"/>
       <c r="E98" s="36"/>
       <c r="F98" s="36"/>
-      <c r="G98" s="724"/>
+      <c r="G98" s="769"/>
       <c r="H98" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="I98" s="726"/>
+      <c r="I98" s="785"/>
       <c r="J98" s="131" t="s">
         <v>166</v>
       </c>
@@ -12976,13 +12976,13 @@
       <c r="V98" s="36"/>
       <c r="W98" s="36"/>
       <c r="X98" s="36"/>
-      <c r="Y98" s="728"/>
+      <c r="Y98" s="741"/>
       <c r="Z98" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="AA98" s="750"/>
+      <c r="AA98" s="766"/>
       <c r="AB98" s="49" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AC98" s="138" t="s">
         <v>125</v>
@@ -13001,11 +13001,11 @@
       <c r="D99" s="36"/>
       <c r="E99" s="36"/>
       <c r="F99" s="36"/>
-      <c r="G99" s="724"/>
+      <c r="G99" s="769"/>
       <c r="H99" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="I99" s="726"/>
+      <c r="I99" s="785"/>
       <c r="J99" s="131" t="s">
         <v>167</v>
       </c>
@@ -13023,11 +13023,11 @@
       <c r="V99" s="36"/>
       <c r="W99" s="36"/>
       <c r="X99" s="36"/>
-      <c r="Y99" s="728"/>
+      <c r="Y99" s="741"/>
       <c r="Z99" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AA99" s="750"/>
+      <c r="AA99" s="766"/>
       <c r="AB99" s="109" t="s">
         <v>153</v>
       </c>
@@ -13046,11 +13046,11 @@
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
-      <c r="G100" s="724"/>
+      <c r="G100" s="769"/>
       <c r="H100" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="I100" s="726"/>
+      <c r="I100" s="785"/>
       <c r="J100" s="139" t="s">
         <v>168</v>
       </c>
@@ -13070,11 +13070,11 @@
       <c r="V100" s="36"/>
       <c r="W100" s="36"/>
       <c r="X100" s="36"/>
-      <c r="Y100" s="728"/>
+      <c r="Y100" s="741"/>
       <c r="Z100" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AA100" s="750"/>
+      <c r="AA100" s="766"/>
       <c r="AB100" s="109" t="s">
         <v>156</v>
       </c>
@@ -13111,11 +13111,11 @@
       <c r="V101" s="79"/>
       <c r="W101" s="79"/>
       <c r="X101" s="79"/>
-      <c r="Y101" s="728"/>
+      <c r="Y101" s="741"/>
       <c r="Z101" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="AA101" s="750"/>
+      <c r="AA101" s="766"/>
       <c r="AB101" s="73" t="s">
         <v>159</v>
       </c>
@@ -13314,14 +13314,56 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="G96:G100"/>
+    <mergeCell ref="I96:I100"/>
+    <mergeCell ref="Y86:Y92"/>
+    <mergeCell ref="W79:W87"/>
+    <mergeCell ref="G78:G83"/>
+    <mergeCell ref="I78:I83"/>
+    <mergeCell ref="G84:G89"/>
+    <mergeCell ref="I84:I89"/>
+    <mergeCell ref="K84:K89"/>
+    <mergeCell ref="U79:U87"/>
+    <mergeCell ref="Y72:Y74"/>
+    <mergeCell ref="Y75:Y79"/>
+    <mergeCell ref="AA72:AA74"/>
+    <mergeCell ref="AA75:AA79"/>
+    <mergeCell ref="G90:G95"/>
+    <mergeCell ref="I90:I95"/>
+    <mergeCell ref="AA86:AA92"/>
+    <mergeCell ref="M75:M77"/>
+    <mergeCell ref="O75:O77"/>
+    <mergeCell ref="Q73:Q74"/>
+    <mergeCell ref="S73:S78"/>
+    <mergeCell ref="U73:U78"/>
+    <mergeCell ref="Q75:Q77"/>
+    <mergeCell ref="M78:M84"/>
+    <mergeCell ref="O78:O84"/>
+    <mergeCell ref="S79:S87"/>
+    <mergeCell ref="AC86:AC92"/>
+    <mergeCell ref="Y93:Y101"/>
+    <mergeCell ref="AA93:AA101"/>
+    <mergeCell ref="Y80:Y83"/>
+    <mergeCell ref="Y84:Y85"/>
+    <mergeCell ref="AA80:AA83"/>
+    <mergeCell ref="AA84:AA85"/>
+    <mergeCell ref="AC80:AC83"/>
+    <mergeCell ref="AC84:AC85"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A63:E63"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A67:A69"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A70:A75"/>
+    <mergeCell ref="C70:C74"/>
+    <mergeCell ref="E70:E75"/>
+    <mergeCell ref="G65:K65"/>
+    <mergeCell ref="G67:G70"/>
+    <mergeCell ref="G71:G77"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="I71:I77"/>
     <mergeCell ref="Y65:AC65"/>
     <mergeCell ref="AE65:AI65"/>
     <mergeCell ref="M65:Q65"/>
@@ -13338,56 +13380,14 @@
     <mergeCell ref="AE69:AE71"/>
     <mergeCell ref="AG69:AG71"/>
     <mergeCell ref="W73:W78"/>
-    <mergeCell ref="A70:A75"/>
-    <mergeCell ref="C70:C74"/>
-    <mergeCell ref="E70:E75"/>
-    <mergeCell ref="G65:K65"/>
-    <mergeCell ref="G67:G70"/>
-    <mergeCell ref="G71:G77"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="I71:I77"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A58:F58"/>
-    <mergeCell ref="A63:E63"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A67:A69"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="AC86:AC92"/>
-    <mergeCell ref="Y93:Y101"/>
-    <mergeCell ref="AA93:AA101"/>
-    <mergeCell ref="Y80:Y83"/>
-    <mergeCell ref="Y84:Y85"/>
-    <mergeCell ref="AA80:AA83"/>
-    <mergeCell ref="AA84:AA85"/>
-    <mergeCell ref="AC80:AC83"/>
-    <mergeCell ref="AC84:AC85"/>
-    <mergeCell ref="Y72:Y74"/>
-    <mergeCell ref="Y75:Y79"/>
-    <mergeCell ref="AA72:AA74"/>
-    <mergeCell ref="AA75:AA79"/>
-    <mergeCell ref="G90:G95"/>
-    <mergeCell ref="I90:I95"/>
-    <mergeCell ref="AA86:AA92"/>
-    <mergeCell ref="M75:M77"/>
-    <mergeCell ref="O75:O77"/>
-    <mergeCell ref="Q73:Q74"/>
-    <mergeCell ref="S73:S78"/>
-    <mergeCell ref="U73:U78"/>
-    <mergeCell ref="Q75:Q77"/>
-    <mergeCell ref="M78:M84"/>
-    <mergeCell ref="O78:O84"/>
-    <mergeCell ref="S79:S87"/>
-    <mergeCell ref="G96:G100"/>
-    <mergeCell ref="I96:I100"/>
-    <mergeCell ref="Y86:Y92"/>
-    <mergeCell ref="W79:W87"/>
-    <mergeCell ref="G78:G83"/>
-    <mergeCell ref="I78:I83"/>
-    <mergeCell ref="G84:G89"/>
-    <mergeCell ref="I84:I89"/>
-    <mergeCell ref="K84:K89"/>
-    <mergeCell ref="U79:U87"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <phoneticPr fontId="60" type="noConversion"/>
   <dataValidations count="1">
@@ -13406,7 +13406,7 @@
   <dimension ref="A1:AO195"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.5"/>
@@ -13444,16 +13444,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="25" customHeight="1">
-      <c r="A1" s="808" t="s">
+      <c r="A1" s="790" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="809"/>
-      <c r="C1" s="809"/>
-      <c r="D1" s="809"/>
-      <c r="E1" s="809"/>
-      <c r="F1" s="809"/>
-      <c r="G1" s="809"/>
-      <c r="H1" s="810"/>
+      <c r="B1" s="791"/>
+      <c r="C1" s="791"/>
+      <c r="D1" s="791"/>
+      <c r="E1" s="791"/>
+      <c r="F1" s="791"/>
+      <c r="G1" s="791"/>
+      <c r="H1" s="792"/>
       <c r="I1" s="330"/>
       <c r="J1" s="330"/>
       <c r="K1" s="330"/>
@@ -13489,16 +13489,16 @@
       <c r="AO1" s="332"/>
     </row>
     <row r="2" spans="1:41" ht="25" customHeight="1" thickBot="1">
-      <c r="A2" s="811" t="s">
+      <c r="A2" s="793" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="812"/>
-      <c r="C2" s="812"/>
-      <c r="D2" s="812"/>
-      <c r="E2" s="812"/>
-      <c r="F2" s="812"/>
-      <c r="G2" s="812"/>
-      <c r="H2" s="813"/>
+      <c r="B2" s="794"/>
+      <c r="C2" s="794"/>
+      <c r="D2" s="794"/>
+      <c r="E2" s="794"/>
+      <c r="F2" s="794"/>
+      <c r="G2" s="794"/>
+      <c r="H2" s="795"/>
       <c r="I2" s="333"/>
       <c r="J2" s="333"/>
       <c r="K2" s="333"/>
@@ -13568,7 +13568,7 @@
         <v>269</v>
       </c>
       <c r="L3" s="687" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M3" s="339" t="s">
         <v>270</v>
@@ -13580,7 +13580,7 @@
         <v>271</v>
       </c>
       <c r="P3" s="159" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="Q3" s="156" t="s">
         <v>179</v>
@@ -13595,25 +13595,25 @@
         <v>181</v>
       </c>
       <c r="U3" s="341" t="s">
+        <v>272</v>
+      </c>
+      <c r="V3" s="342" t="s">
         <v>273</v>
       </c>
-      <c r="V3" s="342" t="s">
+      <c r="W3" s="339" t="s">
         <v>274</v>
       </c>
-      <c r="W3" s="339" t="s">
+      <c r="X3" s="156" t="s">
         <v>275</v>
-      </c>
-      <c r="X3" s="156" t="s">
-        <v>276</v>
       </c>
       <c r="Y3" s="339" t="s">
         <v>235</v>
       </c>
       <c r="Z3" s="343" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA3" s="344" t="s">
         <v>277</v>
-      </c>
-      <c r="AA3" s="344" t="s">
-        <v>278</v>
       </c>
       <c r="AB3" s="189" t="s">
         <v>236</v>
@@ -13622,7 +13622,7 @@
         <v>237</v>
       </c>
       <c r="AD3" s="345" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE3" s="145"/>
       <c r="AF3" s="346" t="s">
@@ -13745,16 +13745,16 @@
       <c r="AO5" s="360"/>
     </row>
     <row r="6" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="798" t="s">
+      <c r="A6" s="802" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="820"/>
-      <c r="C6" s="820"/>
-      <c r="D6" s="820"/>
-      <c r="E6" s="820"/>
-      <c r="F6" s="820"/>
-      <c r="G6" s="820"/>
-      <c r="H6" s="821"/>
+      <c r="B6" s="803"/>
+      <c r="C6" s="803"/>
+      <c r="D6" s="803"/>
+      <c r="E6" s="803"/>
+      <c r="F6" s="803"/>
+      <c r="G6" s="803"/>
+      <c r="H6" s="804"/>
       <c r="I6" s="377">
         <f>SUM(I4:I5)</f>
         <v>0</v>
@@ -13805,11 +13805,11 @@
       <c r="AC6" s="383"/>
       <c r="AD6" s="384"/>
       <c r="AE6" s="360"/>
-      <c r="AF6" s="790" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG6" s="791"/>
-      <c r="AH6" s="792"/>
+      <c r="AF6" s="808" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG6" s="809"/>
+      <c r="AH6" s="810"/>
       <c r="AI6" s="385">
         <f>SUMPRODUCT(I4:I5,AI4:AI5)</f>
         <v>0</v>
@@ -13908,16 +13908,16 @@
       <c r="AO8" s="360"/>
     </row>
     <row r="9" spans="1:41" ht="25" customHeight="1" thickBot="1">
-      <c r="A9" s="811" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="812"/>
-      <c r="C9" s="812"/>
-      <c r="D9" s="812"/>
-      <c r="E9" s="812"/>
-      <c r="F9" s="812"/>
-      <c r="G9" s="812"/>
-      <c r="H9" s="813"/>
+      <c r="A9" s="793" t="s">
+        <v>280</v>
+      </c>
+      <c r="B9" s="794"/>
+      <c r="C9" s="794"/>
+      <c r="D9" s="794"/>
+      <c r="E9" s="794"/>
+      <c r="F9" s="794"/>
+      <c r="G9" s="794"/>
+      <c r="H9" s="795"/>
       <c r="I9" s="333"/>
       <c r="J9" s="333"/>
       <c r="K9" s="333"/>
@@ -13984,10 +13984,10 @@
         <v>268</v>
       </c>
       <c r="K10" s="156" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L10" s="691" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M10" s="156" t="s">
         <v>270</v>
@@ -13999,7 +13999,7 @@
         <v>271</v>
       </c>
       <c r="P10" s="156" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="Q10" s="156" t="s">
         <v>179</v>
@@ -14014,25 +14014,25 @@
         <v>181</v>
       </c>
       <c r="U10" s="395" t="s">
+        <v>272</v>
+      </c>
+      <c r="V10" s="395" t="s">
         <v>273</v>
       </c>
-      <c r="V10" s="395" t="s">
+      <c r="W10" s="339" t="s">
         <v>274</v>
       </c>
-      <c r="W10" s="339" t="s">
+      <c r="X10" s="156" t="s">
         <v>275</v>
-      </c>
-      <c r="X10" s="156" t="s">
-        <v>276</v>
       </c>
       <c r="Y10" s="156" t="s">
         <v>235</v>
       </c>
       <c r="Z10" s="396" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA10" s="344" t="s">
         <v>277</v>
-      </c>
-      <c r="AA10" s="344" t="s">
-        <v>278</v>
       </c>
       <c r="AB10" s="189" t="s">
         <v>236</v>
@@ -14041,7 +14041,7 @@
         <v>237</v>
       </c>
       <c r="AD10" s="397" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE10" s="145"/>
       <c r="AF10" s="398" t="s">
@@ -14164,16 +14164,16 @@
       <c r="AO12" s="360"/>
     </row>
     <row r="13" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A13" s="798" t="s">
+      <c r="A13" s="802" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="799"/>
-      <c r="C13" s="799"/>
-      <c r="D13" s="800"/>
-      <c r="E13" s="800"/>
-      <c r="F13" s="800"/>
-      <c r="G13" s="800"/>
-      <c r="H13" s="801"/>
+      <c r="B13" s="805"/>
+      <c r="C13" s="805"/>
+      <c r="D13" s="806"/>
+      <c r="E13" s="806"/>
+      <c r="F13" s="806"/>
+      <c r="G13" s="806"/>
+      <c r="H13" s="807"/>
       <c r="I13" s="177">
         <f>SUM(I11:I12)</f>
         <v>0</v>
@@ -14224,11 +14224,11 @@
       <c r="AC13" s="383"/>
       <c r="AD13" s="411"/>
       <c r="AE13" s="360"/>
-      <c r="AF13" s="793" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG13" s="794"/>
-      <c r="AH13" s="795"/>
+      <c r="AF13" s="811" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG13" s="812"/>
+      <c r="AH13" s="813"/>
       <c r="AI13" s="385">
         <f>SUMPRODUCT(I11:I12,AI11:AI12)</f>
         <v>0</v>
@@ -14327,16 +14327,16 @@
       <c r="AO15" s="360"/>
     </row>
     <row r="16" spans="1:41" ht="24" customHeight="1" thickBot="1">
-      <c r="A16" s="814" t="s">
-        <v>283</v>
-      </c>
-      <c r="B16" s="815"/>
-      <c r="C16" s="815"/>
-      <c r="D16" s="815"/>
-      <c r="E16" s="815"/>
-      <c r="F16" s="815"/>
-      <c r="G16" s="815"/>
-      <c r="H16" s="816"/>
+      <c r="A16" s="796" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="797"/>
+      <c r="C16" s="797"/>
+      <c r="D16" s="797"/>
+      <c r="E16" s="797"/>
+      <c r="F16" s="797"/>
+      <c r="G16" s="797"/>
+      <c r="H16" s="798"/>
       <c r="I16" s="184"/>
       <c r="J16" s="184"/>
       <c r="K16" s="184"/>
@@ -14412,7 +14412,7 @@
         <v>11</v>
       </c>
       <c r="P17" s="156" t="s">
-        <v>272</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="189" t="s">
         <v>179</v>
@@ -14427,25 +14427,25 @@
         <v>181</v>
       </c>
       <c r="U17" s="418" t="s">
+        <v>272</v>
+      </c>
+      <c r="V17" s="395" t="s">
         <v>273</v>
       </c>
-      <c r="V17" s="395" t="s">
+      <c r="W17" s="339" t="s">
         <v>274</v>
       </c>
-      <c r="W17" s="339" t="s">
+      <c r="X17" s="189" t="s">
         <v>275</v>
-      </c>
-      <c r="X17" s="189" t="s">
-        <v>276</v>
       </c>
       <c r="Y17" s="189" t="s">
         <v>235</v>
       </c>
       <c r="Z17" s="419" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA17" s="344" t="s">
         <v>277</v>
-      </c>
-      <c r="AA17" s="344" t="s">
-        <v>278</v>
       </c>
       <c r="AB17" s="189" t="s">
         <v>236</v>
@@ -14454,7 +14454,7 @@
         <v>237</v>
       </c>
       <c r="AD17" s="193" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE17" s="420"/>
       <c r="AF17" s="421" t="s">
@@ -14577,16 +14577,16 @@
       <c r="AO19" s="360"/>
     </row>
     <row r="20" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A20" s="798" t="s">
+      <c r="A20" s="802" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="799"/>
-      <c r="C20" s="799"/>
-      <c r="D20" s="800"/>
-      <c r="E20" s="800"/>
-      <c r="F20" s="800"/>
-      <c r="G20" s="800"/>
-      <c r="H20" s="801"/>
+      <c r="B20" s="805"/>
+      <c r="C20" s="805"/>
+      <c r="D20" s="806"/>
+      <c r="E20" s="806"/>
+      <c r="F20" s="806"/>
+      <c r="G20" s="806"/>
+      <c r="H20" s="807"/>
       <c r="I20" s="432">
         <f>SUM(I18:I19)</f>
         <v>0</v>
@@ -14637,11 +14637,11 @@
       <c r="AC20" s="383"/>
       <c r="AD20" s="411"/>
       <c r="AE20" s="433"/>
-      <c r="AF20" s="790" t="s">
-        <v>280</v>
-      </c>
-      <c r="AG20" s="796"/>
-      <c r="AH20" s="797"/>
+      <c r="AF20" s="808" t="s">
+        <v>279</v>
+      </c>
+      <c r="AG20" s="814"/>
+      <c r="AH20" s="815"/>
       <c r="AI20" s="385">
         <f>SUMPRODUCT(I18:I19,AI18:AI19)</f>
         <v>0</v>
@@ -14664,16 +14664,16 @@
       <c r="AJ22" s="413"/>
     </row>
     <row r="23" spans="1:41" ht="24" customHeight="1" thickBot="1">
-      <c r="A23" s="817" t="s">
-        <v>284</v>
-      </c>
-      <c r="B23" s="818"/>
-      <c r="C23" s="818"/>
-      <c r="D23" s="818"/>
-      <c r="E23" s="818"/>
-      <c r="F23" s="818"/>
-      <c r="G23" s="818"/>
-      <c r="H23" s="819"/>
+      <c r="A23" s="799" t="s">
+        <v>283</v>
+      </c>
+      <c r="B23" s="800"/>
+      <c r="C23" s="800"/>
+      <c r="D23" s="800"/>
+      <c r="E23" s="800"/>
+      <c r="F23" s="800"/>
+      <c r="G23" s="800"/>
+      <c r="H23" s="801"/>
       <c r="I23" s="434"/>
       <c r="J23" s="434"/>
       <c r="K23" s="434"/>
@@ -14737,17 +14737,17 @@
         <v>178</v>
       </c>
       <c r="J24" s="442" t="s">
+        <v>284</v>
+      </c>
+      <c r="K24" s="442" t="s">
         <v>285</v>
-      </c>
-      <c r="K24" s="442" t="s">
-        <v>286</v>
       </c>
       <c r="L24" s="417"/>
       <c r="M24" s="443" t="s">
+        <v>286</v>
+      </c>
+      <c r="N24" s="443" t="s">
         <v>287</v>
-      </c>
-      <c r="N24" s="443" t="s">
-        <v>288</v>
       </c>
       <c r="O24" s="443" t="s">
         <v>11</v>
@@ -14769,16 +14769,16 @@
       <c r="V24" s="446"/>
       <c r="W24" s="447"/>
       <c r="X24" s="448" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Y24" s="449" t="s">
         <v>235</v>
       </c>
       <c r="Z24" s="450" t="s">
+        <v>276</v>
+      </c>
+      <c r="AA24" s="344" t="s">
         <v>277</v>
-      </c>
-      <c r="AA24" s="344" t="s">
-        <v>278</v>
       </c>
       <c r="AB24" s="451" t="s">
         <v>236</v>
@@ -14787,7 +14787,7 @@
         <v>237</v>
       </c>
       <c r="AD24" s="453" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE24" s="145"/>
       <c r="AF24" s="145"/>
@@ -14888,16 +14888,16 @@
       <c r="AO26" s="360"/>
     </row>
     <row r="27" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A27" s="798" t="s">
+      <c r="A27" s="802" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="799"/>
-      <c r="C27" s="799"/>
-      <c r="D27" s="800"/>
-      <c r="E27" s="800"/>
-      <c r="F27" s="800"/>
-      <c r="G27" s="800"/>
-      <c r="H27" s="801"/>
+      <c r="B27" s="805"/>
+      <c r="C27" s="805"/>
+      <c r="D27" s="806"/>
+      <c r="E27" s="806"/>
+      <c r="F27" s="806"/>
+      <c r="G27" s="806"/>
+      <c r="H27" s="807"/>
       <c r="I27" s="469">
         <f>SUM(I25:I26)</f>
         <v>0</v>
@@ -15005,16 +15005,16 @@
       <c r="AO29" s="413"/>
     </row>
     <row r="30" spans="1:41" ht="24" customHeight="1" thickBot="1">
-      <c r="A30" s="805" t="s">
-        <v>289</v>
-      </c>
-      <c r="B30" s="806"/>
-      <c r="C30" s="806"/>
-      <c r="D30" s="806"/>
-      <c r="E30" s="806"/>
-      <c r="F30" s="806"/>
-      <c r="G30" s="806"/>
-      <c r="H30" s="807"/>
+      <c r="A30" s="819" t="s">
+        <v>288</v>
+      </c>
+      <c r="B30" s="820"/>
+      <c r="C30" s="820"/>
+      <c r="D30" s="820"/>
+      <c r="E30" s="820"/>
+      <c r="F30" s="820"/>
+      <c r="G30" s="820"/>
+      <c r="H30" s="821"/>
       <c r="I30" s="485"/>
       <c r="J30" s="485"/>
       <c r="K30" s="485"/>
@@ -15082,7 +15082,7 @@
       <c r="L31" s="487"/>
       <c r="M31" s="487"/>
       <c r="N31" s="424" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O31" s="488"/>
       <c r="P31" s="444"/>
@@ -15112,7 +15112,7 @@
         <v>237</v>
       </c>
       <c r="AD31" s="425" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AE31" s="420"/>
       <c r="AF31" s="420"/>
@@ -15213,16 +15213,16 @@
       <c r="AO33" s="360"/>
     </row>
     <row r="34" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A34" s="798" t="s">
+      <c r="A34" s="802" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="799"/>
-      <c r="C34" s="799"/>
-      <c r="D34" s="800"/>
-      <c r="E34" s="800"/>
-      <c r="F34" s="800"/>
-      <c r="G34" s="800"/>
-      <c r="H34" s="801"/>
+      <c r="B34" s="805"/>
+      <c r="C34" s="805"/>
+      <c r="D34" s="806"/>
+      <c r="E34" s="806"/>
+      <c r="F34" s="806"/>
+      <c r="G34" s="806"/>
+      <c r="H34" s="807"/>
       <c r="I34" s="505">
         <f>SUM(I32:I33)</f>
         <v>0</v>
@@ -15269,21 +15269,21 @@
       <c r="AJ35" s="413"/>
     </row>
     <row r="36" spans="1:41" ht="27.75" customHeight="1" thickBot="1">
-      <c r="A36" s="802" t="s">
+      <c r="A36" s="816" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="803"/>
-      <c r="C36" s="803"/>
-      <c r="D36" s="803"/>
-      <c r="E36" s="803"/>
-      <c r="F36" s="803"/>
-      <c r="G36" s="803"/>
-      <c r="H36" s="803"/>
-      <c r="I36" s="803"/>
-      <c r="J36" s="803"/>
-      <c r="K36" s="803"/>
-      <c r="L36" s="803"/>
-      <c r="M36" s="804"/>
+      <c r="B36" s="817"/>
+      <c r="C36" s="817"/>
+      <c r="D36" s="817"/>
+      <c r="E36" s="817"/>
+      <c r="F36" s="817"/>
+      <c r="G36" s="817"/>
+      <c r="H36" s="817"/>
+      <c r="I36" s="817"/>
+      <c r="J36" s="817"/>
+      <c r="K36" s="817"/>
+      <c r="L36" s="817"/>
+      <c r="M36" s="818"/>
       <c r="N36" s="512">
         <f>SUM(N6,N13,N20,N27,N34)</f>
         <v>0</v>
@@ -16104,13 +16104,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A16:H16"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A13:H13"/>
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AF13:AH13"/>
     <mergeCell ref="AF20:AH20"/>
@@ -16119,9 +16112,16 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="A34:H34"/>
     <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A13:H13"/>
   </mergeCells>
   <phoneticPr fontId="60" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I5 I11:I12 I18:I19 I25:I26 I32:I33" xr:uid="{00000000-0002-0000-0700-000000000000}">
       <formula1>0</formula1>
       <formula2>1</formula2>
@@ -16146,7 +16146,7 @@
   <dimension ref="A1:AO238"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U70" sqref="A70:XFD70"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -16181,7 +16181,7 @@
   <sheetData>
     <row r="1" spans="1:41" ht="33.65" customHeight="1">
       <c r="A1" s="18" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B1" s="517"/>
       <c r="C1" s="517"/>
@@ -16225,16 +16225,16 @@
       <c r="AO1" s="518"/>
     </row>
     <row r="2" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A2" s="829" t="s">
-        <v>292</v>
-      </c>
-      <c r="B2" s="809"/>
-      <c r="C2" s="809"/>
-      <c r="D2" s="809"/>
-      <c r="E2" s="809"/>
-      <c r="F2" s="809"/>
-      <c r="G2" s="809"/>
-      <c r="H2" s="830"/>
+      <c r="A2" s="850" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="791"/>
+      <c r="C2" s="791"/>
+      <c r="D2" s="791"/>
+      <c r="E2" s="791"/>
+      <c r="F2" s="791"/>
+      <c r="G2" s="791"/>
+      <c r="H2" s="851"/>
       <c r="I2" s="521"/>
       <c r="J2" s="521"/>
       <c r="K2" s="522"/>
@@ -16258,18 +16258,18 @@
       <c r="AC2" s="524"/>
       <c r="AD2" s="525"/>
       <c r="AE2" s="526"/>
-      <c r="AF2" s="843" t="s">
+      <c r="AF2" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG2" s="704"/>
-      <c r="AH2" s="704"/>
-      <c r="AI2" s="704"/>
-      <c r="AJ2" s="844"/>
-      <c r="AK2" s="704"/>
-      <c r="AL2" s="704"/>
-      <c r="AM2" s="704"/>
-      <c r="AN2" s="704"/>
-      <c r="AO2" s="704"/>
+      <c r="AG2" s="696"/>
+      <c r="AH2" s="696"/>
+      <c r="AI2" s="696"/>
+      <c r="AJ2" s="834"/>
+      <c r="AK2" s="696"/>
+      <c r="AL2" s="696"/>
+      <c r="AM2" s="696"/>
+      <c r="AN2" s="696"/>
+      <c r="AO2" s="696"/>
     </row>
     <row r="3" spans="1:41" ht="40.5" customHeight="1">
       <c r="A3" s="527" t="s">
@@ -16300,10 +16300,10 @@
         <v>178</v>
       </c>
       <c r="J3" s="528" t="s">
+        <v>292</v>
+      </c>
+      <c r="K3" s="529" t="s">
         <v>293</v>
-      </c>
-      <c r="K3" s="529" t="s">
-        <v>294</v>
       </c>
       <c r="L3" s="529" t="s">
         <v>184</v>
@@ -16312,32 +16312,32 @@
         <v>189</v>
       </c>
       <c r="N3" s="529" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O3" s="530"/>
       <c r="P3" s="530"/>
       <c r="Q3" s="530"/>
       <c r="R3" s="531" t="s">
+        <v>295</v>
+      </c>
+      <c r="S3" s="532" t="s">
         <v>296</v>
       </c>
-      <c r="S3" s="532" t="s">
+      <c r="T3" s="532" t="s">
         <v>297</v>
       </c>
-      <c r="T3" s="532" t="s">
+      <c r="U3" s="532" t="s">
         <v>298</v>
       </c>
-      <c r="U3" s="532" t="s">
+      <c r="V3" s="528" t="s">
         <v>299</v>
       </c>
-      <c r="V3" s="528" t="s">
+      <c r="W3" s="837" t="s">
         <v>300</v>
       </c>
-      <c r="W3" s="847" t="s">
+      <c r="X3" s="838"/>
+      <c r="Y3" s="533" t="s">
         <v>301</v>
-      </c>
-      <c r="X3" s="848"/>
-      <c r="Y3" s="533" t="s">
-        <v>302</v>
       </c>
       <c r="Z3" s="528" t="s">
         <v>193</v>
@@ -16354,31 +16354,31 @@
       <c r="AD3" s="536"/>
       <c r="AE3" s="537"/>
       <c r="AF3" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG3" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG3" s="538" t="s">
+      <c r="AH3" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH3" s="539" t="s">
+      <c r="AI3" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI3" s="538" t="s">
+      <c r="AJ3" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ3" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK3" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL3" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM3" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM3" s="538" t="s">
+      <c r="AN3" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN3" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO3" s="541" t="s">
         <v>18</v>
@@ -16424,7 +16424,7 @@
       <c r="AK4" s="168"/>
       <c r="AL4" s="545"/>
       <c r="AM4" s="545" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN4" s="168"/>
       <c r="AO4" s="168"/>
@@ -16469,22 +16469,22 @@
       <c r="AK5" s="168"/>
       <c r="AL5" s="545"/>
       <c r="AM5" s="545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN5" s="168"/>
       <c r="AO5" s="168"/>
     </row>
     <row r="6" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A6" s="822" t="s">
+      <c r="A6" s="847" t="s">
         <v>197</v>
       </c>
-      <c r="B6" s="823"/>
-      <c r="C6" s="823"/>
-      <c r="D6" s="823"/>
-      <c r="E6" s="823"/>
-      <c r="F6" s="823"/>
-      <c r="G6" s="823"/>
-      <c r="H6" s="824"/>
+      <c r="B6" s="848"/>
+      <c r="C6" s="848"/>
+      <c r="D6" s="848"/>
+      <c r="E6" s="848"/>
+      <c r="F6" s="848"/>
+      <c r="G6" s="848"/>
+      <c r="H6" s="849"/>
       <c r="I6" s="564">
         <f>SUM(I4:I5)</f>
         <v>0</v>
@@ -16608,16 +16608,16 @@
       <c r="AO8" s="576"/>
     </row>
     <row r="9" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A9" s="831" t="s">
-        <v>313</v>
-      </c>
-      <c r="B9" s="806"/>
-      <c r="C9" s="806"/>
-      <c r="D9" s="806"/>
-      <c r="E9" s="806"/>
-      <c r="F9" s="806"/>
-      <c r="G9" s="806"/>
-      <c r="H9" s="807"/>
+      <c r="A9" s="852" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="820"/>
+      <c r="C9" s="820"/>
+      <c r="D9" s="820"/>
+      <c r="E9" s="820"/>
+      <c r="F9" s="820"/>
+      <c r="G9" s="820"/>
+      <c r="H9" s="821"/>
       <c r="I9" s="582"/>
       <c r="J9" s="582"/>
       <c r="K9" s="582"/>
@@ -16641,18 +16641,18 @@
       <c r="AC9" s="582"/>
       <c r="AD9" s="525"/>
       <c r="AE9" s="583"/>
-      <c r="AF9" s="843" t="s">
+      <c r="AF9" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG9" s="704"/>
-      <c r="AH9" s="704"/>
-      <c r="AI9" s="704"/>
-      <c r="AJ9" s="844"/>
-      <c r="AK9" s="704"/>
-      <c r="AL9" s="704"/>
-      <c r="AM9" s="704"/>
-      <c r="AN9" s="704"/>
-      <c r="AO9" s="704"/>
+      <c r="AG9" s="696"/>
+      <c r="AH9" s="696"/>
+      <c r="AI9" s="696"/>
+      <c r="AJ9" s="834"/>
+      <c r="AK9" s="696"/>
+      <c r="AL9" s="696"/>
+      <c r="AM9" s="696"/>
+      <c r="AN9" s="696"/>
+      <c r="AO9" s="696"/>
     </row>
     <row r="10" spans="1:41" ht="40.5" customHeight="1">
       <c r="A10" s="584" t="s">
@@ -16683,10 +16683,10 @@
         <v>178</v>
       </c>
       <c r="J10" s="585" t="s">
+        <v>292</v>
+      </c>
+      <c r="K10" s="585" t="s">
         <v>293</v>
-      </c>
-      <c r="K10" s="585" t="s">
-        <v>294</v>
       </c>
       <c r="L10" s="585" t="s">
         <v>184</v>
@@ -16695,32 +16695,32 @@
         <v>189</v>
       </c>
       <c r="N10" s="533" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O10" s="530"/>
       <c r="P10" s="530"/>
       <c r="Q10" s="530"/>
       <c r="R10" s="531" t="s">
+        <v>295</v>
+      </c>
+      <c r="S10" s="533" t="s">
         <v>296</v>
       </c>
-      <c r="S10" s="533" t="s">
+      <c r="T10" s="586" t="s">
         <v>297</v>
       </c>
-      <c r="T10" s="586" t="s">
+      <c r="U10" s="585" t="s">
         <v>298</v>
       </c>
-      <c r="U10" s="585" t="s">
+      <c r="V10" s="585" t="s">
         <v>299</v>
       </c>
-      <c r="V10" s="585" t="s">
+      <c r="W10" s="822" t="s">
         <v>300</v>
       </c>
-      <c r="W10" s="849" t="s">
+      <c r="X10" s="823"/>
+      <c r="Y10" s="585" t="s">
         <v>301</v>
-      </c>
-      <c r="X10" s="850"/>
-      <c r="Y10" s="585" t="s">
-        <v>302</v>
       </c>
       <c r="Z10" s="585" t="s">
         <v>193</v>
@@ -16737,31 +16737,31 @@
       <c r="AD10" s="588"/>
       <c r="AE10" s="583"/>
       <c r="AF10" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG10" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG10" s="538" t="s">
+      <c r="AH10" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH10" s="539" t="s">
+      <c r="AI10" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI10" s="538" t="s">
+      <c r="AJ10" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ10" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK10" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL10" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM10" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM10" s="538" t="s">
+      <c r="AN10" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN10" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO10" s="541" t="s">
         <v>18</v>
@@ -16807,7 +16807,7 @@
       <c r="AK11" s="168"/>
       <c r="AL11" s="545"/>
       <c r="AM11" s="545" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN11" s="168"/>
       <c r="AO11" s="168"/>
@@ -16852,22 +16852,22 @@
       <c r="AK12" s="168"/>
       <c r="AL12" s="545"/>
       <c r="AM12" s="545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN12" s="168"/>
       <c r="AO12" s="168"/>
     </row>
     <row r="13" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A13" s="825" t="s">
+      <c r="A13" s="829" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="826"/>
-      <c r="C13" s="826"/>
-      <c r="D13" s="826"/>
-      <c r="E13" s="827"/>
-      <c r="F13" s="827"/>
-      <c r="G13" s="827"/>
-      <c r="H13" s="828"/>
+      <c r="B13" s="830"/>
+      <c r="C13" s="830"/>
+      <c r="D13" s="830"/>
+      <c r="E13" s="831"/>
+      <c r="F13" s="831"/>
+      <c r="G13" s="831"/>
+      <c r="H13" s="832"/>
       <c r="I13" s="385">
         <f>SUM(I11:I12)</f>
         <v>0</v>
@@ -16984,16 +16984,16 @@
       <c r="AO15" s="576"/>
     </row>
     <row r="16" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A16" s="832" t="s">
-        <v>315</v>
-      </c>
-      <c r="B16" s="833"/>
-      <c r="C16" s="833"/>
-      <c r="D16" s="834"/>
-      <c r="E16" s="833"/>
-      <c r="F16" s="834"/>
-      <c r="G16" s="834"/>
-      <c r="H16" s="834"/>
+      <c r="A16" s="826" t="s">
+        <v>314</v>
+      </c>
+      <c r="B16" s="827"/>
+      <c r="C16" s="827"/>
+      <c r="D16" s="828"/>
+      <c r="E16" s="827"/>
+      <c r="F16" s="828"/>
+      <c r="G16" s="828"/>
+      <c r="H16" s="828"/>
       <c r="I16" s="582"/>
       <c r="J16" s="582"/>
       <c r="K16" s="582"/>
@@ -17017,18 +17017,18 @@
       <c r="AC16" s="582"/>
       <c r="AD16" s="525"/>
       <c r="AE16" s="583"/>
-      <c r="AF16" s="843" t="s">
+      <c r="AF16" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG16" s="704"/>
-      <c r="AH16" s="704"/>
-      <c r="AI16" s="704"/>
-      <c r="AJ16" s="844"/>
-      <c r="AK16" s="704"/>
-      <c r="AL16" s="704"/>
-      <c r="AM16" s="704"/>
-      <c r="AN16" s="704"/>
-      <c r="AO16" s="704"/>
+      <c r="AG16" s="696"/>
+      <c r="AH16" s="696"/>
+      <c r="AI16" s="696"/>
+      <c r="AJ16" s="834"/>
+      <c r="AK16" s="696"/>
+      <c r="AL16" s="696"/>
+      <c r="AM16" s="696"/>
+      <c r="AN16" s="696"/>
+      <c r="AO16" s="696"/>
     </row>
     <row r="17" spans="1:41" ht="40.5" customHeight="1">
       <c r="A17" s="584" t="s">
@@ -17059,10 +17059,10 @@
         <v>178</v>
       </c>
       <c r="J17" s="585" t="s">
+        <v>292</v>
+      </c>
+      <c r="K17" s="585" t="s">
         <v>293</v>
-      </c>
-      <c r="K17" s="585" t="s">
-        <v>294</v>
       </c>
       <c r="L17" s="585" t="s">
         <v>184</v>
@@ -17071,32 +17071,32 @@
         <v>189</v>
       </c>
       <c r="N17" s="533" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O17" s="530"/>
       <c r="P17" s="530"/>
       <c r="Q17" s="530"/>
       <c r="R17" s="531" t="s">
+        <v>295</v>
+      </c>
+      <c r="S17" s="533" t="s">
         <v>296</v>
       </c>
-      <c r="S17" s="533" t="s">
+      <c r="T17" s="533" t="s">
         <v>297</v>
       </c>
-      <c r="T17" s="533" t="s">
+      <c r="U17" s="585" t="s">
         <v>298</v>
       </c>
-      <c r="U17" s="585" t="s">
+      <c r="V17" s="585" t="s">
         <v>299</v>
       </c>
-      <c r="V17" s="585" t="s">
+      <c r="W17" s="822" t="s">
         <v>300</v>
       </c>
-      <c r="W17" s="849" t="s">
+      <c r="X17" s="823"/>
+      <c r="Y17" s="585" t="s">
         <v>301</v>
-      </c>
-      <c r="X17" s="850"/>
-      <c r="Y17" s="585" t="s">
-        <v>302</v>
       </c>
       <c r="Z17" s="585" t="s">
         <v>193</v>
@@ -17113,31 +17113,31 @@
       <c r="AD17" s="588"/>
       <c r="AE17" s="583"/>
       <c r="AF17" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG17" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG17" s="538" t="s">
+      <c r="AH17" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH17" s="539" t="s">
+      <c r="AI17" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI17" s="538" t="s">
+      <c r="AJ17" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ17" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK17" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL17" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM17" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM17" s="538" t="s">
+      <c r="AN17" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN17" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO17" s="541" t="s">
         <v>18</v>
@@ -17183,7 +17183,7 @@
       <c r="AK18" s="168"/>
       <c r="AL18" s="545"/>
       <c r="AM18" s="545" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN18" s="168"/>
       <c r="AO18" s="168"/>
@@ -17228,22 +17228,22 @@
       <c r="AK19" s="168"/>
       <c r="AL19" s="545"/>
       <c r="AM19" s="545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN19" s="168"/>
       <c r="AO19" s="168"/>
     </row>
     <row r="20" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A20" s="835" t="s">
+      <c r="A20" s="844" t="s">
         <v>197</v>
       </c>
-      <c r="B20" s="836"/>
-      <c r="C20" s="836"/>
-      <c r="D20" s="827"/>
-      <c r="E20" s="836"/>
-      <c r="F20" s="827"/>
-      <c r="G20" s="827"/>
-      <c r="H20" s="837"/>
+      <c r="B20" s="845"/>
+      <c r="C20" s="845"/>
+      <c r="D20" s="831"/>
+      <c r="E20" s="845"/>
+      <c r="F20" s="831"/>
+      <c r="G20" s="831"/>
+      <c r="H20" s="846"/>
       <c r="I20" s="604">
         <f>SUM(I18:I19)</f>
         <v>0</v>
@@ -17360,16 +17360,16 @@
       <c r="AO22" s="576"/>
     </row>
     <row r="23" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A23" s="832" t="s">
-        <v>316</v>
-      </c>
-      <c r="B23" s="833"/>
-      <c r="C23" s="833"/>
-      <c r="D23" s="834"/>
-      <c r="E23" s="833"/>
-      <c r="F23" s="834"/>
-      <c r="G23" s="834"/>
-      <c r="H23" s="834"/>
+      <c r="A23" s="826" t="s">
+        <v>315</v>
+      </c>
+      <c r="B23" s="827"/>
+      <c r="C23" s="827"/>
+      <c r="D23" s="828"/>
+      <c r="E23" s="827"/>
+      <c r="F23" s="828"/>
+      <c r="G23" s="828"/>
+      <c r="H23" s="828"/>
       <c r="I23" s="582"/>
       <c r="J23" s="582"/>
       <c r="K23" s="582"/>
@@ -17393,18 +17393,18 @@
       <c r="AC23" s="582"/>
       <c r="AD23" s="525"/>
       <c r="AE23" s="583"/>
-      <c r="AF23" s="843" t="s">
+      <c r="AF23" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG23" s="704"/>
-      <c r="AH23" s="704"/>
-      <c r="AI23" s="704"/>
-      <c r="AJ23" s="844"/>
-      <c r="AK23" s="704"/>
-      <c r="AL23" s="704"/>
-      <c r="AM23" s="704"/>
-      <c r="AN23" s="704"/>
-      <c r="AO23" s="704"/>
+      <c r="AG23" s="696"/>
+      <c r="AH23" s="696"/>
+      <c r="AI23" s="696"/>
+      <c r="AJ23" s="834"/>
+      <c r="AK23" s="696"/>
+      <c r="AL23" s="696"/>
+      <c r="AM23" s="696"/>
+      <c r="AN23" s="696"/>
+      <c r="AO23" s="696"/>
     </row>
     <row r="24" spans="1:41" ht="40.5" customHeight="1">
       <c r="A24" s="584" t="s">
@@ -17435,10 +17435,10 @@
         <v>178</v>
       </c>
       <c r="J24" s="585" t="s">
+        <v>292</v>
+      </c>
+      <c r="K24" s="585" t="s">
         <v>293</v>
-      </c>
-      <c r="K24" s="585" t="s">
-        <v>294</v>
       </c>
       <c r="L24" s="585" t="s">
         <v>184</v>
@@ -17447,32 +17447,32 @@
         <v>189</v>
       </c>
       <c r="N24" s="533" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O24" s="530"/>
       <c r="P24" s="530"/>
       <c r="Q24" s="530"/>
       <c r="R24" s="531" t="s">
+        <v>295</v>
+      </c>
+      <c r="S24" s="533" t="s">
         <v>296</v>
       </c>
-      <c r="S24" s="533" t="s">
+      <c r="T24" s="533" t="s">
         <v>297</v>
       </c>
-      <c r="T24" s="533" t="s">
+      <c r="U24" s="585" t="s">
         <v>298</v>
       </c>
-      <c r="U24" s="585" t="s">
+      <c r="V24" s="585" t="s">
         <v>299</v>
       </c>
-      <c r="V24" s="585" t="s">
+      <c r="W24" s="822" t="s">
         <v>300</v>
       </c>
-      <c r="W24" s="849" t="s">
+      <c r="X24" s="823"/>
+      <c r="Y24" s="585" t="s">
         <v>301</v>
-      </c>
-      <c r="X24" s="850"/>
-      <c r="Y24" s="585" t="s">
-        <v>302</v>
       </c>
       <c r="Z24" s="585" t="s">
         <v>193</v>
@@ -17489,31 +17489,31 @@
       <c r="AD24" s="588"/>
       <c r="AE24" s="583"/>
       <c r="AF24" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG24" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG24" s="538" t="s">
+      <c r="AH24" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH24" s="539" t="s">
+      <c r="AI24" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI24" s="538" t="s">
+      <c r="AJ24" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ24" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK24" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL24" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM24" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM24" s="538" t="s">
+      <c r="AN24" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN24" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO24" s="541" t="s">
         <v>18</v>
@@ -17559,7 +17559,7 @@
       <c r="AK25" s="168"/>
       <c r="AL25" s="545"/>
       <c r="AM25" s="545" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN25" s="168"/>
       <c r="AO25" s="168"/>
@@ -17604,22 +17604,22 @@
       <c r="AK26" s="168"/>
       <c r="AL26" s="545"/>
       <c r="AM26" s="545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN26" s="168"/>
       <c r="AO26" s="168"/>
     </row>
     <row r="27" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A27" s="835" t="s">
+      <c r="A27" s="844" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="836"/>
-      <c r="C27" s="836"/>
-      <c r="D27" s="827"/>
-      <c r="E27" s="836"/>
-      <c r="F27" s="827"/>
-      <c r="G27" s="827"/>
-      <c r="H27" s="837"/>
+      <c r="B27" s="845"/>
+      <c r="C27" s="845"/>
+      <c r="D27" s="831"/>
+      <c r="E27" s="845"/>
+      <c r="F27" s="831"/>
+      <c r="G27" s="831"/>
+      <c r="H27" s="846"/>
       <c r="I27" s="604">
         <f>SUM(I25:I26)</f>
         <v>0</v>
@@ -17736,16 +17736,16 @@
       <c r="AO29" s="576"/>
     </row>
     <row r="30" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A30" s="832" t="s">
-        <v>317</v>
-      </c>
-      <c r="B30" s="833"/>
-      <c r="C30" s="833"/>
-      <c r="D30" s="834"/>
-      <c r="E30" s="833"/>
-      <c r="F30" s="834"/>
-      <c r="G30" s="834"/>
-      <c r="H30" s="834"/>
+      <c r="A30" s="826" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" s="827"/>
+      <c r="C30" s="827"/>
+      <c r="D30" s="828"/>
+      <c r="E30" s="827"/>
+      <c r="F30" s="828"/>
+      <c r="G30" s="828"/>
+      <c r="H30" s="828"/>
       <c r="I30" s="582"/>
       <c r="J30" s="582"/>
       <c r="K30" s="582"/>
@@ -17769,18 +17769,18 @@
       <c r="AC30" s="582"/>
       <c r="AD30" s="525"/>
       <c r="AE30" s="583"/>
-      <c r="AF30" s="843" t="s">
+      <c r="AF30" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG30" s="704"/>
-      <c r="AH30" s="704"/>
-      <c r="AI30" s="704"/>
-      <c r="AJ30" s="844"/>
-      <c r="AK30" s="704"/>
-      <c r="AL30" s="704"/>
-      <c r="AM30" s="704"/>
-      <c r="AN30" s="704"/>
-      <c r="AO30" s="704"/>
+      <c r="AG30" s="696"/>
+      <c r="AH30" s="696"/>
+      <c r="AI30" s="696"/>
+      <c r="AJ30" s="834"/>
+      <c r="AK30" s="696"/>
+      <c r="AL30" s="696"/>
+      <c r="AM30" s="696"/>
+      <c r="AN30" s="696"/>
+      <c r="AO30" s="696"/>
     </row>
     <row r="31" spans="1:41" ht="40.5" customHeight="1">
       <c r="A31" s="584" t="s">
@@ -17811,10 +17811,10 @@
         <v>178</v>
       </c>
       <c r="J31" s="585" t="s">
+        <v>292</v>
+      </c>
+      <c r="K31" s="585" t="s">
         <v>293</v>
-      </c>
-      <c r="K31" s="585" t="s">
-        <v>294</v>
       </c>
       <c r="L31" s="585" t="s">
         <v>184</v>
@@ -17823,36 +17823,36 @@
         <v>189</v>
       </c>
       <c r="N31" s="533" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O31" s="530"/>
       <c r="P31" s="678" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="Q31" s="678" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R31" s="531" t="s">
+        <v>295</v>
+      </c>
+      <c r="S31" s="533" t="s">
         <v>296</v>
       </c>
-      <c r="S31" s="533" t="s">
+      <c r="T31" s="533" t="s">
         <v>297</v>
       </c>
-      <c r="T31" s="533" t="s">
+      <c r="U31" s="585" t="s">
         <v>298</v>
       </c>
-      <c r="U31" s="585" t="s">
+      <c r="V31" s="585" t="s">
         <v>299</v>
       </c>
-      <c r="V31" s="585" t="s">
+      <c r="W31" s="822" t="s">
         <v>300</v>
       </c>
-      <c r="W31" s="849" t="s">
+      <c r="X31" s="823"/>
+      <c r="Y31" s="585" t="s">
         <v>301</v>
-      </c>
-      <c r="X31" s="850"/>
-      <c r="Y31" s="585" t="s">
-        <v>302</v>
       </c>
       <c r="Z31" s="585" t="s">
         <v>193</v>
@@ -17869,31 +17869,31 @@
       <c r="AD31" s="588"/>
       <c r="AE31" s="583"/>
       <c r="AF31" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG31" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG31" s="538" t="s">
+      <c r="AH31" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH31" s="539" t="s">
+      <c r="AI31" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI31" s="538" t="s">
+      <c r="AJ31" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ31" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK31" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL31" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM31" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM31" s="538" t="s">
+      <c r="AN31" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN31" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO31" s="541" t="s">
         <v>18</v>
@@ -17939,7 +17939,7 @@
       <c r="AK32" s="168"/>
       <c r="AL32" s="545"/>
       <c r="AM32" s="545" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AN32" s="168"/>
       <c r="AO32" s="168"/>
@@ -17984,22 +17984,22 @@
       <c r="AK33" s="168"/>
       <c r="AL33" s="545"/>
       <c r="AM33" s="545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN33" s="168"/>
       <c r="AO33" s="168"/>
     </row>
     <row r="34" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A34" s="835" t="s">
+      <c r="A34" s="844" t="s">
         <v>197</v>
       </c>
-      <c r="B34" s="836"/>
-      <c r="C34" s="836"/>
-      <c r="D34" s="827"/>
-      <c r="E34" s="836"/>
-      <c r="F34" s="827"/>
-      <c r="G34" s="827"/>
-      <c r="H34" s="837"/>
+      <c r="B34" s="845"/>
+      <c r="C34" s="845"/>
+      <c r="D34" s="831"/>
+      <c r="E34" s="845"/>
+      <c r="F34" s="831"/>
+      <c r="G34" s="831"/>
+      <c r="H34" s="846"/>
       <c r="I34" s="604">
         <f>SUM(I32:I33)</f>
         <v>0</v>
@@ -18116,16 +18116,16 @@
       <c r="AO36" s="576"/>
     </row>
     <row r="37" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A37" s="832" t="s">
-        <v>320</v>
-      </c>
-      <c r="B37" s="833"/>
-      <c r="C37" s="833"/>
-      <c r="D37" s="834"/>
-      <c r="E37" s="833"/>
-      <c r="F37" s="834"/>
-      <c r="G37" s="834"/>
-      <c r="H37" s="834"/>
+      <c r="A37" s="826" t="s">
+        <v>319</v>
+      </c>
+      <c r="B37" s="827"/>
+      <c r="C37" s="827"/>
+      <c r="D37" s="828"/>
+      <c r="E37" s="827"/>
+      <c r="F37" s="828"/>
+      <c r="G37" s="828"/>
+      <c r="H37" s="828"/>
       <c r="I37" s="582"/>
       <c r="J37" s="582"/>
       <c r="K37" s="582"/>
@@ -18149,18 +18149,18 @@
       <c r="AC37" s="582"/>
       <c r="AD37" s="525"/>
       <c r="AE37" s="583"/>
-      <c r="AF37" s="843" t="s">
+      <c r="AF37" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG37" s="704"/>
-      <c r="AH37" s="704"/>
-      <c r="AI37" s="704"/>
-      <c r="AJ37" s="844"/>
-      <c r="AK37" s="704"/>
-      <c r="AL37" s="704"/>
-      <c r="AM37" s="704"/>
-      <c r="AN37" s="704"/>
-      <c r="AO37" s="704"/>
+      <c r="AG37" s="696"/>
+      <c r="AH37" s="696"/>
+      <c r="AI37" s="696"/>
+      <c r="AJ37" s="834"/>
+      <c r="AK37" s="696"/>
+      <c r="AL37" s="696"/>
+      <c r="AM37" s="696"/>
+      <c r="AN37" s="696"/>
+      <c r="AO37" s="696"/>
     </row>
     <row r="38" spans="1:41" ht="40.5" customHeight="1">
       <c r="A38" s="605" t="s">
@@ -18191,10 +18191,10 @@
         <v>178</v>
       </c>
       <c r="J38" s="607" t="s">
+        <v>292</v>
+      </c>
+      <c r="K38" s="607" t="s">
         <v>293</v>
-      </c>
-      <c r="K38" s="607" t="s">
-        <v>294</v>
       </c>
       <c r="L38" s="607" t="s">
         <v>184</v>
@@ -18203,34 +18203,34 @@
         <v>189</v>
       </c>
       <c r="N38" s="606" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O38" s="608" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P38" s="609"/>
       <c r="Q38" s="609"/>
       <c r="R38" s="608" t="s">
+        <v>295</v>
+      </c>
+      <c r="S38" s="608" t="s">
         <v>296</v>
       </c>
-      <c r="S38" s="608" t="s">
+      <c r="T38" s="606" t="s">
         <v>297</v>
       </c>
-      <c r="T38" s="606" t="s">
+      <c r="U38" s="607" t="s">
         <v>298</v>
       </c>
-      <c r="U38" s="607" t="s">
+      <c r="V38" s="607" t="s">
         <v>299</v>
       </c>
-      <c r="V38" s="607" t="s">
+      <c r="W38" s="824" t="s">
         <v>300</v>
       </c>
-      <c r="W38" s="851" t="s">
+      <c r="X38" s="825"/>
+      <c r="Y38" s="607" t="s">
         <v>301</v>
-      </c>
-      <c r="X38" s="852"/>
-      <c r="Y38" s="607" t="s">
-        <v>302</v>
       </c>
       <c r="Z38" s="607" t="s">
         <v>193</v>
@@ -18247,31 +18247,31 @@
       <c r="AD38" s="588"/>
       <c r="AE38" s="583"/>
       <c r="AF38" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG38" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG38" s="538" t="s">
+      <c r="AH38" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH38" s="539" t="s">
+      <c r="AI38" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI38" s="538" t="s">
+      <c r="AJ38" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ38" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK38" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL38" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM38" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM38" s="538" t="s">
+      <c r="AN38" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN38" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO38" s="541" t="s">
         <v>18</v>
@@ -18317,7 +18317,7 @@
       <c r="AK39" s="168"/>
       <c r="AL39" s="545"/>
       <c r="AM39" s="545" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AN39" s="168"/>
       <c r="AO39" s="168"/>
@@ -18366,16 +18366,16 @@
       <c r="AO40" s="168"/>
     </row>
     <row r="41" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A41" s="840" t="s">
+      <c r="A41" s="841" t="s">
         <v>197</v>
       </c>
-      <c r="B41" s="841"/>
-      <c r="C41" s="841"/>
-      <c r="D41" s="842"/>
-      <c r="E41" s="842"/>
-      <c r="F41" s="842"/>
-      <c r="G41" s="841"/>
-      <c r="H41" s="708"/>
+      <c r="B41" s="842"/>
+      <c r="C41" s="842"/>
+      <c r="D41" s="843"/>
+      <c r="E41" s="843"/>
+      <c r="F41" s="843"/>
+      <c r="G41" s="842"/>
+      <c r="H41" s="698"/>
       <c r="I41" s="385">
         <f>SUM(I39:I40)</f>
         <v>0</v>
@@ -18492,16 +18492,16 @@
       <c r="AO43" s="576"/>
     </row>
     <row r="44" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A44" s="832" t="s">
-        <v>322</v>
-      </c>
-      <c r="B44" s="833"/>
-      <c r="C44" s="833"/>
-      <c r="D44" s="834"/>
-      <c r="E44" s="833"/>
-      <c r="F44" s="834"/>
-      <c r="G44" s="834"/>
-      <c r="H44" s="834"/>
+      <c r="A44" s="826" t="s">
+        <v>321</v>
+      </c>
+      <c r="B44" s="827"/>
+      <c r="C44" s="827"/>
+      <c r="D44" s="828"/>
+      <c r="E44" s="827"/>
+      <c r="F44" s="828"/>
+      <c r="G44" s="828"/>
+      <c r="H44" s="828"/>
       <c r="I44" s="582"/>
       <c r="J44" s="582"/>
       <c r="K44" s="582"/>
@@ -18525,18 +18525,18 @@
       <c r="AC44" s="582"/>
       <c r="AD44" s="525"/>
       <c r="AE44" s="583"/>
-      <c r="AF44" s="843" t="s">
+      <c r="AF44" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG44" s="704"/>
-      <c r="AH44" s="704"/>
-      <c r="AI44" s="704"/>
-      <c r="AJ44" s="844"/>
-      <c r="AK44" s="704"/>
-      <c r="AL44" s="704"/>
-      <c r="AM44" s="704"/>
-      <c r="AN44" s="704"/>
-      <c r="AO44" s="704"/>
+      <c r="AG44" s="696"/>
+      <c r="AH44" s="696"/>
+      <c r="AI44" s="696"/>
+      <c r="AJ44" s="834"/>
+      <c r="AK44" s="696"/>
+      <c r="AL44" s="696"/>
+      <c r="AM44" s="696"/>
+      <c r="AN44" s="696"/>
+      <c r="AO44" s="696"/>
     </row>
     <row r="45" spans="1:41" ht="40.5" customHeight="1">
       <c r="A45" s="584" t="s">
@@ -18567,10 +18567,10 @@
         <v>178</v>
       </c>
       <c r="J45" s="585" t="s">
+        <v>292</v>
+      </c>
+      <c r="K45" s="585" t="s">
         <v>293</v>
-      </c>
-      <c r="K45" s="585" t="s">
-        <v>294</v>
       </c>
       <c r="L45" s="585" t="s">
         <v>184</v>
@@ -18579,32 +18579,32 @@
         <v>189</v>
       </c>
       <c r="N45" s="533" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O45" s="530"/>
       <c r="P45" s="530"/>
       <c r="Q45" s="530"/>
       <c r="R45" s="533" t="s">
+        <v>295</v>
+      </c>
+      <c r="S45" s="533" t="s">
         <v>296</v>
       </c>
-      <c r="S45" s="533" t="s">
+      <c r="T45" s="533" t="s">
         <v>297</v>
       </c>
-      <c r="T45" s="533" t="s">
+      <c r="U45" s="585" t="s">
         <v>298</v>
       </c>
-      <c r="U45" s="585" t="s">
+      <c r="V45" s="585" t="s">
         <v>299</v>
       </c>
-      <c r="V45" s="585" t="s">
+      <c r="W45" s="822" t="s">
         <v>300</v>
       </c>
-      <c r="W45" s="849" t="s">
+      <c r="X45" s="823"/>
+      <c r="Y45" s="585" t="s">
         <v>301</v>
-      </c>
-      <c r="X45" s="850"/>
-      <c r="Y45" s="585" t="s">
-        <v>302</v>
       </c>
       <c r="Z45" s="585" t="s">
         <v>193</v>
@@ -18621,31 +18621,31 @@
       <c r="AD45" s="588"/>
       <c r="AE45" s="583"/>
       <c r="AF45" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG45" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG45" s="538" t="s">
+      <c r="AH45" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH45" s="539" t="s">
+      <c r="AI45" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI45" s="538" t="s">
+      <c r="AJ45" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ45" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK45" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL45" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM45" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM45" s="538" t="s">
+      <c r="AN45" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN45" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO45" s="541" t="s">
         <v>18</v>
@@ -18738,16 +18738,16 @@
       <c r="AO47" s="168"/>
     </row>
     <row r="48" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A48" s="825" t="s">
+      <c r="A48" s="829" t="s">
         <v>197</v>
       </c>
-      <c r="B48" s="826"/>
-      <c r="C48" s="826"/>
-      <c r="D48" s="827"/>
-      <c r="E48" s="827"/>
-      <c r="F48" s="827"/>
-      <c r="G48" s="827"/>
-      <c r="H48" s="828"/>
+      <c r="B48" s="830"/>
+      <c r="C48" s="830"/>
+      <c r="D48" s="831"/>
+      <c r="E48" s="831"/>
+      <c r="F48" s="831"/>
+      <c r="G48" s="831"/>
+      <c r="H48" s="832"/>
       <c r="I48" s="385">
         <f>SUM(I46:I46)</f>
         <v>0</v>
@@ -18864,16 +18864,16 @@
       <c r="AO50" s="576"/>
     </row>
     <row r="51" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A51" s="838" t="s">
-        <v>392</v>
-      </c>
-      <c r="B51" s="839"/>
-      <c r="C51" s="839"/>
-      <c r="D51" s="839"/>
-      <c r="E51" s="839"/>
-      <c r="F51" s="839"/>
-      <c r="G51" s="839"/>
-      <c r="H51" s="839"/>
+      <c r="A51" s="839" t="s">
+        <v>391</v>
+      </c>
+      <c r="B51" s="840"/>
+      <c r="C51" s="840"/>
+      <c r="D51" s="840"/>
+      <c r="E51" s="840"/>
+      <c r="F51" s="840"/>
+      <c r="G51" s="840"/>
+      <c r="H51" s="840"/>
       <c r="I51" s="582"/>
       <c r="J51" s="582"/>
       <c r="K51" s="582"/>
@@ -18897,18 +18897,18 @@
       <c r="AC51" s="582"/>
       <c r="AD51" s="525"/>
       <c r="AE51" s="583"/>
-      <c r="AF51" s="843" t="s">
+      <c r="AF51" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG51" s="704"/>
-      <c r="AH51" s="704"/>
-      <c r="AI51" s="704"/>
-      <c r="AJ51" s="844"/>
-      <c r="AK51" s="704"/>
-      <c r="AL51" s="704"/>
-      <c r="AM51" s="704"/>
-      <c r="AN51" s="704"/>
-      <c r="AO51" s="704"/>
+      <c r="AG51" s="696"/>
+      <c r="AH51" s="696"/>
+      <c r="AI51" s="696"/>
+      <c r="AJ51" s="834"/>
+      <c r="AK51" s="696"/>
+      <c r="AL51" s="696"/>
+      <c r="AM51" s="696"/>
+      <c r="AN51" s="696"/>
+      <c r="AO51" s="696"/>
     </row>
     <row r="52" spans="1:41" ht="40.5" customHeight="1">
       <c r="A52" s="584" t="s">
@@ -18939,10 +18939,10 @@
         <v>178</v>
       </c>
       <c r="J52" s="585" t="s">
+        <v>292</v>
+      </c>
+      <c r="K52" s="585" t="s">
         <v>293</v>
-      </c>
-      <c r="K52" s="585" t="s">
-        <v>294</v>
       </c>
       <c r="L52" s="585" t="s">
         <v>184</v>
@@ -18951,32 +18951,32 @@
         <v>189</v>
       </c>
       <c r="N52" s="533" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O52" s="530"/>
       <c r="P52" s="530"/>
       <c r="Q52" s="530"/>
       <c r="R52" s="533" t="s">
+        <v>295</v>
+      </c>
+      <c r="S52" s="533" t="s">
         <v>296</v>
       </c>
-      <c r="S52" s="533" t="s">
+      <c r="T52" s="533" t="s">
         <v>297</v>
       </c>
-      <c r="T52" s="533" t="s">
+      <c r="U52" s="585" t="s">
         <v>298</v>
       </c>
-      <c r="U52" s="585" t="s">
+      <c r="V52" s="585" t="s">
         <v>299</v>
       </c>
-      <c r="V52" s="585" t="s">
+      <c r="W52" s="822" t="s">
         <v>300</v>
       </c>
-      <c r="W52" s="849" t="s">
+      <c r="X52" s="823"/>
+      <c r="Y52" s="585" t="s">
         <v>301</v>
-      </c>
-      <c r="X52" s="850"/>
-      <c r="Y52" s="585" t="s">
-        <v>302</v>
       </c>
       <c r="Z52" s="585" t="s">
         <v>193</v>
@@ -18993,31 +18993,31 @@
       <c r="AD52" s="588"/>
       <c r="AE52" s="583"/>
       <c r="AF52" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG52" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG52" s="538" t="s">
+      <c r="AH52" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH52" s="539" t="s">
+      <c r="AI52" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI52" s="538" t="s">
+      <c r="AJ52" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ52" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK52" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL52" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM52" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM52" s="538" t="s">
+      <c r="AN52" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN52" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO52" s="541" t="s">
         <v>18</v>
@@ -19110,16 +19110,16 @@
       <c r="AO54" s="168"/>
     </row>
     <row r="55" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A55" s="825" t="s">
+      <c r="A55" s="829" t="s">
         <v>197</v>
       </c>
-      <c r="B55" s="826"/>
-      <c r="C55" s="826"/>
-      <c r="D55" s="826"/>
-      <c r="E55" s="827"/>
-      <c r="F55" s="827"/>
-      <c r="G55" s="827"/>
-      <c r="H55" s="828"/>
+      <c r="B55" s="830"/>
+      <c r="C55" s="830"/>
+      <c r="D55" s="830"/>
+      <c r="E55" s="831"/>
+      <c r="F55" s="831"/>
+      <c r="G55" s="831"/>
+      <c r="H55" s="832"/>
       <c r="I55" s="385">
         <f>SUM(I53:I54)</f>
         <v>0</v>
@@ -19244,16 +19244,16 @@
       <c r="AO57" s="576"/>
     </row>
     <row r="58" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A58" s="832" t="s">
-        <v>323</v>
-      </c>
-      <c r="B58" s="833"/>
-      <c r="C58" s="833"/>
-      <c r="D58" s="834"/>
-      <c r="E58" s="833"/>
-      <c r="F58" s="834"/>
-      <c r="G58" s="834"/>
-      <c r="H58" s="834"/>
+      <c r="A58" s="826" t="s">
+        <v>322</v>
+      </c>
+      <c r="B58" s="827"/>
+      <c r="C58" s="827"/>
+      <c r="D58" s="828"/>
+      <c r="E58" s="827"/>
+      <c r="F58" s="828"/>
+      <c r="G58" s="828"/>
+      <c r="H58" s="828"/>
       <c r="I58" s="582"/>
       <c r="J58" s="582"/>
       <c r="K58" s="582"/>
@@ -19277,18 +19277,18 @@
       <c r="AC58" s="582"/>
       <c r="AD58" s="525"/>
       <c r="AE58" s="583"/>
-      <c r="AF58" s="843" t="s">
+      <c r="AF58" s="833" t="s">
         <v>215</v>
       </c>
-      <c r="AG58" s="704"/>
-      <c r="AH58" s="704"/>
-      <c r="AI58" s="704"/>
-      <c r="AJ58" s="844"/>
-      <c r="AK58" s="704"/>
-      <c r="AL58" s="704"/>
-      <c r="AM58" s="704"/>
-      <c r="AN58" s="704"/>
-      <c r="AO58" s="704"/>
+      <c r="AG58" s="696"/>
+      <c r="AH58" s="696"/>
+      <c r="AI58" s="696"/>
+      <c r="AJ58" s="834"/>
+      <c r="AK58" s="696"/>
+      <c r="AL58" s="696"/>
+      <c r="AM58" s="696"/>
+      <c r="AN58" s="696"/>
+      <c r="AO58" s="696"/>
     </row>
     <row r="59" spans="1:41" ht="40.5" customHeight="1">
       <c r="A59" s="584" t="s">
@@ -19319,10 +19319,10 @@
         <v>178</v>
       </c>
       <c r="J59" s="585" t="s">
+        <v>292</v>
+      </c>
+      <c r="K59" s="585" t="s">
         <v>293</v>
-      </c>
-      <c r="K59" s="585" t="s">
-        <v>294</v>
       </c>
       <c r="L59" s="585" t="s">
         <v>184</v>
@@ -19331,38 +19331,38 @@
         <v>189</v>
       </c>
       <c r="N59" s="533" t="s">
+        <v>294</v>
+      </c>
+      <c r="O59" s="608" t="s">
+        <v>320</v>
+      </c>
+      <c r="P59" s="630" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q59" s="630" t="s">
+        <v>324</v>
+      </c>
+      <c r="R59" s="532" t="s">
         <v>295</v>
       </c>
-      <c r="O59" s="608" t="s">
-        <v>321</v>
-      </c>
-      <c r="P59" s="630" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q59" s="630" t="s">
-        <v>325</v>
-      </c>
-      <c r="R59" s="532" t="s">
+      <c r="S59" s="532" t="s">
         <v>296</v>
       </c>
-      <c r="S59" s="532" t="s">
+      <c r="T59" s="586" t="s">
         <v>297</v>
       </c>
-      <c r="T59" s="586" t="s">
+      <c r="U59" s="631" t="s">
         <v>298</v>
       </c>
-      <c r="U59" s="631" t="s">
+      <c r="V59" s="585" t="s">
         <v>299</v>
       </c>
-      <c r="V59" s="585" t="s">
+      <c r="W59" s="822" t="s">
         <v>300</v>
       </c>
-      <c r="W59" s="849" t="s">
+      <c r="X59" s="823"/>
+      <c r="Y59" s="585" t="s">
         <v>301</v>
-      </c>
-      <c r="X59" s="850"/>
-      <c r="Y59" s="585" t="s">
-        <v>302</v>
       </c>
       <c r="Z59" s="632" t="s">
         <v>193</v>
@@ -19379,31 +19379,31 @@
       <c r="AD59" s="588"/>
       <c r="AE59" s="583"/>
       <c r="AF59" s="538" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG59" s="538" t="s">
         <v>303</v>
       </c>
-      <c r="AG59" s="538" t="s">
+      <c r="AH59" s="539" t="s">
         <v>304</v>
       </c>
-      <c r="AH59" s="539" t="s">
+      <c r="AI59" s="538" t="s">
         <v>305</v>
       </c>
-      <c r="AI59" s="538" t="s">
+      <c r="AJ59" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ59" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK59" s="538" t="s">
         <v>179</v>
       </c>
       <c r="AL59" s="538" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM59" s="538" t="s">
         <v>308</v>
       </c>
-      <c r="AM59" s="538" t="s">
+      <c r="AN59" s="541" t="s">
         <v>309</v>
-      </c>
-      <c r="AN59" s="541" t="s">
-        <v>310</v>
       </c>
       <c r="AO59" s="541" t="s">
         <v>18</v>
@@ -19496,16 +19496,16 @@
       <c r="AO61" s="168"/>
     </row>
     <row r="62" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A62" s="825" t="s">
+      <c r="A62" s="829" t="s">
         <v>197</v>
       </c>
-      <c r="B62" s="826"/>
-      <c r="C62" s="826"/>
-      <c r="D62" s="826"/>
-      <c r="E62" s="827"/>
-      <c r="F62" s="827"/>
-      <c r="G62" s="827"/>
-      <c r="H62" s="828"/>
+      <c r="B62" s="830"/>
+      <c r="C62" s="830"/>
+      <c r="D62" s="830"/>
+      <c r="E62" s="831"/>
+      <c r="F62" s="831"/>
+      <c r="G62" s="831"/>
+      <c r="H62" s="832"/>
       <c r="I62" s="385">
         <f>SUM(I60:I61)</f>
         <v>0</v>
@@ -19630,16 +19630,16 @@
       <c r="AO64" s="576"/>
     </row>
     <row r="65" spans="1:41" ht="28.25" customHeight="1" thickBot="1">
-      <c r="A65" s="832" t="s">
-        <v>326</v>
-      </c>
-      <c r="B65" s="833"/>
-      <c r="C65" s="833"/>
-      <c r="D65" s="834"/>
-      <c r="E65" s="833"/>
-      <c r="F65" s="834"/>
-      <c r="G65" s="834"/>
-      <c r="H65" s="834"/>
+      <c r="A65" s="826" t="s">
+        <v>325</v>
+      </c>
+      <c r="B65" s="827"/>
+      <c r="C65" s="827"/>
+      <c r="D65" s="828"/>
+      <c r="E65" s="827"/>
+      <c r="F65" s="828"/>
+      <c r="G65" s="828"/>
+      <c r="H65" s="828"/>
       <c r="I65" s="582"/>
       <c r="J65" s="582"/>
       <c r="K65" s="582"/>
@@ -19663,18 +19663,18 @@
       <c r="AC65" s="582"/>
       <c r="AD65" s="525"/>
       <c r="AE65" s="583"/>
-      <c r="AF65" s="845" t="s">
+      <c r="AF65" s="835" t="s">
         <v>215</v>
       </c>
-      <c r="AG65" s="846"/>
-      <c r="AH65" s="846"/>
-      <c r="AI65" s="846"/>
-      <c r="AJ65" s="844"/>
-      <c r="AK65" s="846"/>
-      <c r="AL65" s="846"/>
-      <c r="AM65" s="846"/>
-      <c r="AN65" s="846"/>
-      <c r="AO65" s="846"/>
+      <c r="AG65" s="836"/>
+      <c r="AH65" s="836"/>
+      <c r="AI65" s="836"/>
+      <c r="AJ65" s="834"/>
+      <c r="AK65" s="836"/>
+      <c r="AL65" s="836"/>
+      <c r="AM65" s="836"/>
+      <c r="AN65" s="836"/>
+      <c r="AO65" s="836"/>
     </row>
     <row r="66" spans="1:41" ht="40.5" customHeight="1">
       <c r="A66" s="584" t="s">
@@ -19705,10 +19705,10 @@
         <v>178</v>
       </c>
       <c r="J66" s="585" t="s">
+        <v>292</v>
+      </c>
+      <c r="K66" s="585" t="s">
         <v>293</v>
-      </c>
-      <c r="K66" s="585" t="s">
-        <v>294</v>
       </c>
       <c r="L66" s="585" t="s">
         <v>184</v>
@@ -19717,32 +19717,32 @@
         <v>189</v>
       </c>
       <c r="N66" s="533" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="O66" s="530"/>
       <c r="P66" s="530"/>
       <c r="Q66" s="530"/>
       <c r="R66" s="533" t="s">
+        <v>295</v>
+      </c>
+      <c r="S66" s="533" t="s">
         <v>296</v>
       </c>
-      <c r="S66" s="533" t="s">
+      <c r="T66" s="533" t="s">
         <v>297</v>
       </c>
-      <c r="T66" s="533" t="s">
+      <c r="U66" s="585" t="s">
         <v>298</v>
       </c>
-      <c r="U66" s="585" t="s">
+      <c r="V66" s="585" t="s">
         <v>299</v>
       </c>
-      <c r="V66" s="585" t="s">
+      <c r="W66" s="822" t="s">
         <v>300</v>
       </c>
-      <c r="W66" s="849" t="s">
+      <c r="X66" s="823"/>
+      <c r="Y66" s="585" t="s">
         <v>301</v>
-      </c>
-      <c r="X66" s="850"/>
-      <c r="Y66" s="585" t="s">
-        <v>302</v>
       </c>
       <c r="Z66" s="585" t="s">
         <v>193</v>
@@ -19759,31 +19759,31 @@
       <c r="AD66" s="588"/>
       <c r="AE66" s="583"/>
       <c r="AF66" s="641" t="s">
+        <v>302</v>
+      </c>
+      <c r="AG66" s="641" t="s">
         <v>303</v>
       </c>
-      <c r="AG66" s="641" t="s">
+      <c r="AH66" s="641" t="s">
         <v>304</v>
       </c>
-      <c r="AH66" s="641" t="s">
+      <c r="AI66" s="641" t="s">
         <v>305</v>
       </c>
-      <c r="AI66" s="641" t="s">
+      <c r="AJ66" s="540" t="s">
         <v>306</v>
-      </c>
-      <c r="AJ66" s="540" t="s">
-        <v>307</v>
       </c>
       <c r="AK66" s="641" t="s">
         <v>179</v>
       </c>
       <c r="AL66" s="641" t="s">
+        <v>307</v>
+      </c>
+      <c r="AM66" s="641" t="s">
         <v>308</v>
       </c>
-      <c r="AM66" s="641" t="s">
+      <c r="AN66" s="641" t="s">
         <v>309</v>
-      </c>
-      <c r="AN66" s="641" t="s">
-        <v>310</v>
       </c>
       <c r="AO66" s="641" t="s">
         <v>18</v>
@@ -19876,16 +19876,16 @@
       <c r="AO68" s="168"/>
     </row>
     <row r="69" spans="1:41" ht="20" customHeight="1" thickBot="1">
-      <c r="A69" s="825" t="s">
+      <c r="A69" s="829" t="s">
         <v>197</v>
       </c>
-      <c r="B69" s="826"/>
-      <c r="C69" s="826"/>
-      <c r="D69" s="826"/>
-      <c r="E69" s="827"/>
-      <c r="F69" s="827"/>
-      <c r="G69" s="827"/>
-      <c r="H69" s="828"/>
+      <c r="B69" s="830"/>
+      <c r="C69" s="830"/>
+      <c r="D69" s="830"/>
+      <c r="E69" s="831"/>
+      <c r="F69" s="831"/>
+      <c r="G69" s="831"/>
+      <c r="H69" s="832"/>
       <c r="I69" s="385">
         <f>SUM(I67:I68)</f>
         <v>0</v>
@@ -20151,11 +20151,11 @@
     </row>
     <row r="77" spans="1:41" hidden="1">
       <c r="A77" s="643" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B77" s="643"/>
       <c r="C77" s="643" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D77" s="577"/>
       <c r="E77" s="575"/>
@@ -20164,7 +20164,7 @@
       <c r="J77" s="575"/>
       <c r="K77" s="575"/>
       <c r="L77" s="644" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M77" s="644"/>
       <c r="U77" s="577"/>
@@ -20181,24 +20181,24 @@
     </row>
     <row r="78" spans="1:41" hidden="1">
       <c r="A78" s="643" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B78" s="643"/>
       <c r="C78" s="643" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D78" s="577"/>
       <c r="E78" s="577"/>
       <c r="F78" s="577"/>
       <c r="G78" s="577"/>
       <c r="J78" s="645" t="s">
+        <v>330</v>
+      </c>
+      <c r="K78" s="642" t="s">
         <v>331</v>
       </c>
-      <c r="K78" s="642" t="s">
+      <c r="L78" s="646" t="s">
         <v>332</v>
-      </c>
-      <c r="L78" s="646" t="s">
-        <v>333</v>
       </c>
       <c r="M78" s="644"/>
       <c r="U78" s="577"/>
@@ -20215,26 +20215,26 @@
     </row>
     <row r="79" spans="1:41" hidden="1">
       <c r="A79" s="648" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B79" s="648">
         <v>21</v>
       </c>
       <c r="C79" s="648" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D79" s="577"/>
       <c r="E79" s="577"/>
       <c r="F79" s="577"/>
       <c r="G79" s="577"/>
       <c r="J79" s="645" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K79" s="642" t="s">
         <v>195</v>
       </c>
       <c r="L79" s="646" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M79" s="644"/>
       <c r="U79" s="577"/>
@@ -20251,24 +20251,24 @@
     </row>
     <row r="80" spans="1:41" hidden="1">
       <c r="A80" s="643" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B80" s="643"/>
       <c r="C80" s="643" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D80" s="577"/>
       <c r="E80" s="577"/>
       <c r="F80" s="577"/>
       <c r="G80" s="577"/>
       <c r="J80" s="645" t="s">
+        <v>339</v>
+      </c>
+      <c r="K80" s="642" t="s">
         <v>340</v>
       </c>
-      <c r="K80" s="642" t="s">
+      <c r="L80" s="646" t="s">
         <v>341</v>
-      </c>
-      <c r="L80" s="646" t="s">
-        <v>342</v>
       </c>
       <c r="M80" s="644"/>
       <c r="U80" s="577"/>
@@ -20285,24 +20285,24 @@
     </row>
     <row r="81" spans="1:41" hidden="1">
       <c r="A81" s="643" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B81" s="643"/>
       <c r="C81" s="643" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D81" s="577"/>
       <c r="E81" s="577"/>
       <c r="F81" s="577"/>
       <c r="G81" s="577"/>
       <c r="J81" s="645" t="s">
+        <v>343</v>
+      </c>
+      <c r="K81" s="642" t="s">
         <v>344</v>
       </c>
-      <c r="K81" s="642" t="s">
+      <c r="L81" s="646" t="s">
         <v>345</v>
-      </c>
-      <c r="L81" s="646" t="s">
-        <v>346</v>
       </c>
       <c r="M81" s="644"/>
       <c r="U81" s="577"/>
@@ -20319,28 +20319,28 @@
     </row>
     <row r="82" spans="1:41" hidden="1">
       <c r="A82" s="648" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B82" s="648">
         <v>21</v>
       </c>
       <c r="C82" s="648" t="s">
+        <v>347</v>
+      </c>
+      <c r="D82" s="646" t="s">
         <v>348</v>
-      </c>
-      <c r="D82" s="646" t="s">
-        <v>349</v>
       </c>
       <c r="E82" s="577"/>
       <c r="F82" s="577"/>
       <c r="G82" s="577"/>
       <c r="J82" s="645" t="s">
+        <v>349</v>
+      </c>
+      <c r="K82" s="642" t="s">
         <v>350</v>
       </c>
-      <c r="K82" s="642" t="s">
-        <v>351</v>
-      </c>
       <c r="L82" s="649" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M82" s="644"/>
       <c r="N82" s="650"/>
@@ -20358,23 +20358,23 @@
     </row>
     <row r="83" spans="1:41" hidden="1">
       <c r="A83" s="648" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B83" s="648">
         <v>81</v>
       </c>
       <c r="C83" s="648" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D83" s="651"/>
       <c r="E83" s="577"/>
       <c r="F83" s="577"/>
       <c r="G83" s="577"/>
       <c r="J83" s="645" t="s">
+        <v>353</v>
+      </c>
+      <c r="K83" s="642" t="s">
         <v>354</v>
-      </c>
-      <c r="K83" s="642" t="s">
-        <v>355</v>
       </c>
       <c r="L83" s="642"/>
       <c r="M83" s="575"/>
@@ -20399,11 +20399,11 @@
     </row>
     <row r="84" spans="1:41" hidden="1">
       <c r="A84" s="643" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B84" s="643"/>
       <c r="C84" s="643" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D84" s="577"/>
       <c r="E84" s="577"/>
@@ -20436,11 +20436,11 @@
     </row>
     <row r="85" spans="1:41" hidden="1">
       <c r="A85" s="643" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B85" s="643"/>
       <c r="C85" s="643" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D85" s="577"/>
       <c r="E85" s="577"/>
@@ -20483,11 +20483,11 @@
     </row>
     <row r="86" spans="1:41" hidden="1">
       <c r="A86" s="643" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B86" s="643"/>
       <c r="C86" s="643" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D86" s="577"/>
       <c r="E86" s="577"/>
@@ -20530,13 +20530,13 @@
     </row>
     <row r="87" spans="1:41" hidden="1">
       <c r="A87" s="648" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B87" s="648">
         <v>31</v>
       </c>
       <c r="C87" s="648" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D87" s="651"/>
       <c r="E87" s="651"/>
@@ -20579,16 +20579,16 @@
     </row>
     <row r="88" spans="1:41" hidden="1">
       <c r="A88" s="648" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B88" s="648">
         <v>41</v>
       </c>
       <c r="C88" s="648" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D88" s="646" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E88" s="651"/>
       <c r="F88" s="651"/>
@@ -20630,16 +20630,16 @@
     </row>
     <row r="89" spans="1:41" hidden="1">
       <c r="A89" s="648" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B89" s="648">
         <v>21</v>
       </c>
       <c r="C89" s="648" t="s">
+        <v>366</v>
+      </c>
+      <c r="D89" s="646" t="s">
         <v>367</v>
-      </c>
-      <c r="D89" s="646" t="s">
-        <v>368</v>
       </c>
       <c r="E89" s="651"/>
       <c r="F89" s="651"/>
@@ -20681,16 +20681,16 @@
     </row>
     <row r="90" spans="1:41" ht="69.75" hidden="1" customHeight="1">
       <c r="A90" s="652" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B90" s="648">
         <v>41</v>
       </c>
       <c r="C90" s="653" t="s">
+        <v>369</v>
+      </c>
+      <c r="D90" s="646" t="s">
         <v>370</v>
-      </c>
-      <c r="D90" s="646" t="s">
-        <v>371</v>
       </c>
       <c r="E90" s="651"/>
       <c r="F90" s="651"/>
@@ -20732,11 +20732,11 @@
     </row>
     <row r="91" spans="1:41" hidden="1">
       <c r="A91" s="654" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B91" s="643"/>
       <c r="C91" s="643" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D91" s="577"/>
       <c r="E91" s="577"/>
@@ -20779,13 +20779,13 @@
     </row>
     <row r="92" spans="1:41" hidden="1">
       <c r="A92" s="652" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B92" s="648">
         <v>21</v>
       </c>
       <c r="C92" s="648" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D92" s="651"/>
       <c r="E92" s="651"/>
@@ -20828,13 +20828,13 @@
     </row>
     <row r="93" spans="1:41" hidden="1">
       <c r="A93" s="652" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B93" s="648">
         <v>51</v>
       </c>
       <c r="C93" s="648" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D93" s="651"/>
       <c r="E93" s="651"/>
@@ -20877,11 +20877,11 @@
     </row>
     <row r="94" spans="1:41" hidden="1">
       <c r="A94" s="654" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B94" s="643"/>
       <c r="C94" s="643" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D94" s="577"/>
       <c r="E94" s="577"/>
@@ -20924,13 +20924,13 @@
     </row>
     <row r="95" spans="1:41" hidden="1">
       <c r="A95" s="652" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B95" s="648">
         <v>31</v>
       </c>
       <c r="C95" s="648" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D95" s="651"/>
       <c r="E95" s="651"/>
@@ -20973,11 +20973,11 @@
     </row>
     <row r="96" spans="1:41" hidden="1">
       <c r="A96" s="654" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B96" s="643"/>
       <c r="C96" s="643" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D96" s="577"/>
       <c r="E96" s="577"/>
@@ -21446,14 +21446,22 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="W59:X59"/>
-    <mergeCell ref="W45:X45"/>
-    <mergeCell ref="W52:X52"/>
-    <mergeCell ref="W66:X66"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="W38:X38"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A9:H9"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="A20:H20"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A27:H27"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="A34:H34"/>
+    <mergeCell ref="A44:H44"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A51:H51"/>
+    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A37:H37"/>
+    <mergeCell ref="A41:H41"/>
     <mergeCell ref="A58:H58"/>
     <mergeCell ref="A62:H62"/>
     <mergeCell ref="A65:H65"/>
@@ -21470,22 +21478,14 @@
     <mergeCell ref="AF37:AO37"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="W10:X10"/>
-    <mergeCell ref="A44:H44"/>
-    <mergeCell ref="A48:H48"/>
-    <mergeCell ref="A51:H51"/>
-    <mergeCell ref="A55:H55"/>
-    <mergeCell ref="A37:H37"/>
-    <mergeCell ref="A41:H41"/>
-    <mergeCell ref="A20:H20"/>
-    <mergeCell ref="A23:H23"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A34:H34"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="W59:X59"/>
+    <mergeCell ref="W45:X45"/>
+    <mergeCell ref="W52:X52"/>
+    <mergeCell ref="W66:X66"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="W38:X38"/>
   </mergeCells>
   <phoneticPr fontId="60" type="noConversion"/>
   <dataValidations count="7">
@@ -21521,7 +21521,7 @@
   <sheetPr codeName="5.阀类设备"/>
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
@@ -21554,13 +21554,13 @@
       <c r="A1" s="853" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="809"/>
-      <c r="C1" s="809"/>
-      <c r="D1" s="809"/>
-      <c r="E1" s="809"/>
-      <c r="F1" s="809"/>
-      <c r="G1" s="809"/>
-      <c r="H1" s="810"/>
+      <c r="B1" s="791"/>
+      <c r="C1" s="791"/>
+      <c r="D1" s="791"/>
+      <c r="E1" s="791"/>
+      <c r="F1" s="791"/>
+      <c r="G1" s="791"/>
+      <c r="H1" s="792"/>
       <c r="I1" s="141"/>
       <c r="J1" s="141"/>
       <c r="K1" s="141"/>
@@ -21585,13 +21585,13 @@
       <c r="A2" s="854" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="812"/>
-      <c r="C2" s="812"/>
-      <c r="D2" s="812"/>
-      <c r="E2" s="812"/>
-      <c r="F2" s="812"/>
-      <c r="G2" s="812"/>
-      <c r="H2" s="813"/>
+      <c r="B2" s="794"/>
+      <c r="C2" s="794"/>
+      <c r="D2" s="794"/>
+      <c r="E2" s="794"/>
+      <c r="F2" s="794"/>
+      <c r="G2" s="794"/>
+      <c r="H2" s="795"/>
       <c r="I2" s="147"/>
       <c r="J2" s="147"/>
       <c r="K2" s="147"/>
@@ -21818,7 +21818,7 @@
     </row>
     <row r="8" spans="1:27" ht="22.5" customHeight="1"/>
     <row r="9" spans="1:27" ht="30" customHeight="1" thickBot="1">
-      <c r="A9" s="814" t="s">
+      <c r="A9" s="796" t="s">
         <v>198</v>
       </c>
       <c r="B9" s="858"/>
@@ -21993,13 +21993,13 @@
       <c r="A13" s="859" t="s">
         <v>197</v>
       </c>
-      <c r="B13" s="800"/>
-      <c r="C13" s="800"/>
-      <c r="D13" s="800"/>
-      <c r="E13" s="800"/>
-      <c r="F13" s="800"/>
-      <c r="G13" s="800"/>
-      <c r="H13" s="801"/>
+      <c r="B13" s="806"/>
+      <c r="C13" s="806"/>
+      <c r="D13" s="806"/>
+      <c r="E13" s="806"/>
+      <c r="F13" s="806"/>
+      <c r="G13" s="806"/>
+      <c r="H13" s="807"/>
       <c r="I13" s="177">
         <f>SUM(I11:I12)</f>
         <v>0</v>
@@ -22105,13 +22105,13 @@
       <c r="A1" s="864" t="s">
         <v>213</v>
       </c>
-      <c r="B1" s="809"/>
-      <c r="C1" s="809"/>
-      <c r="D1" s="809"/>
-      <c r="E1" s="809"/>
-      <c r="F1" s="809"/>
-      <c r="G1" s="809"/>
-      <c r="H1" s="830"/>
+      <c r="B1" s="791"/>
+      <c r="C1" s="791"/>
+      <c r="D1" s="791"/>
+      <c r="E1" s="791"/>
+      <c r="F1" s="791"/>
+      <c r="G1" s="791"/>
+      <c r="H1" s="851"/>
       <c r="I1" s="214"/>
       <c r="J1" s="214"/>
       <c r="K1" s="215"/>
@@ -22133,13 +22133,13 @@
       <c r="A2" s="864" t="s">
         <v>214</v>
       </c>
-      <c r="B2" s="809"/>
-      <c r="C2" s="809"/>
-      <c r="D2" s="809"/>
-      <c r="E2" s="809"/>
-      <c r="F2" s="809"/>
-      <c r="G2" s="809"/>
-      <c r="H2" s="830"/>
+      <c r="B2" s="791"/>
+      <c r="C2" s="791"/>
+      <c r="D2" s="791"/>
+      <c r="E2" s="791"/>
+      <c r="F2" s="791"/>
+      <c r="G2" s="791"/>
+      <c r="H2" s="851"/>
       <c r="I2" s="214"/>
       <c r="J2" s="214"/>
       <c r="K2" s="215"/>
@@ -22157,8 +22157,8 @@
       <c r="Y2" s="863" t="s">
         <v>215</v>
       </c>
-      <c r="Z2" s="704"/>
-      <c r="AA2" s="704"/>
+      <c r="Z2" s="696"/>
+      <c r="AA2" s="696"/>
     </row>
     <row r="3" spans="1:27" ht="34.25" customHeight="1">
       <c r="A3" s="220" t="s">
@@ -22195,7 +22195,7 @@
         <v>179</v>
       </c>
       <c r="L3" s="221" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M3" s="221" t="s">
         <v>216</v>
@@ -22377,13 +22377,13 @@
       <c r="A10" s="864" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="809"/>
-      <c r="C10" s="809"/>
-      <c r="D10" s="809"/>
-      <c r="E10" s="809"/>
-      <c r="F10" s="809"/>
-      <c r="G10" s="809"/>
-      <c r="H10" s="830"/>
+      <c r="B10" s="791"/>
+      <c r="C10" s="791"/>
+      <c r="D10" s="791"/>
+      <c r="E10" s="791"/>
+      <c r="F10" s="791"/>
+      <c r="G10" s="791"/>
+      <c r="H10" s="851"/>
       <c r="I10" s="214"/>
       <c r="J10" s="214"/>
       <c r="K10" s="215"/>
@@ -22457,7 +22457,7 @@
         <v>231</v>
       </c>
       <c r="S11" s="676" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="T11" s="266" t="s">
         <v>232</v>
@@ -22538,13 +22538,13 @@
       <c r="A14" s="862" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="708"/>
-      <c r="C14" s="708"/>
-      <c r="D14" s="708"/>
-      <c r="E14" s="708"/>
-      <c r="F14" s="708"/>
-      <c r="G14" s="708"/>
-      <c r="H14" s="708"/>
+      <c r="B14" s="698"/>
+      <c r="C14" s="698"/>
+      <c r="D14" s="698"/>
+      <c r="E14" s="698"/>
+      <c r="F14" s="698"/>
+      <c r="G14" s="698"/>
+      <c r="H14" s="698"/>
       <c r="I14" s="285">
         <f>SUM(I12:I13)</f>
         <v>0</v>
@@ -22554,7 +22554,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="865" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L14" s="866"/>
       <c r="M14" s="866"/>
@@ -22577,17 +22577,17 @@
       <c r="X15" s="219"/>
     </row>
     <row r="16" spans="1:27" ht="33.75" customHeight="1" thickBot="1">
-      <c r="A16" s="802" t="s">
+      <c r="A16" s="816" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="803"/>
-      <c r="C16" s="803"/>
-      <c r="D16" s="803"/>
-      <c r="E16" s="803"/>
-      <c r="F16" s="803"/>
-      <c r="G16" s="803"/>
-      <c r="H16" s="803"/>
-      <c r="I16" s="804"/>
+      <c r="B16" s="817"/>
+      <c r="C16" s="817"/>
+      <c r="D16" s="817"/>
+      <c r="E16" s="817"/>
+      <c r="F16" s="817"/>
+      <c r="G16" s="817"/>
+      <c r="H16" s="817"/>
+      <c r="I16" s="818"/>
       <c r="J16" s="286">
         <f>SUM(J7,J14)</f>
         <v>0</v>
@@ -23230,8 +23230,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -23255,13 +23255,13 @@
       <c r="A1" s="869" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="806"/>
-      <c r="C1" s="806"/>
-      <c r="D1" s="809"/>
-      <c r="E1" s="809"/>
-      <c r="F1" s="809"/>
-      <c r="G1" s="809"/>
-      <c r="H1" s="810"/>
+      <c r="B1" s="820"/>
+      <c r="C1" s="820"/>
+      <c r="D1" s="791"/>
+      <c r="E1" s="791"/>
+      <c r="F1" s="791"/>
+      <c r="G1" s="791"/>
+      <c r="H1" s="792"/>
       <c r="I1" s="290"/>
       <c r="J1" s="870"/>
       <c r="K1" s="871"/>
